--- a/src/views/Reportes/iperf3_27_04_2023.xlsx
+++ b/src/views/Reportes/iperf3_27_04_2023.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L158"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,2995 +442,2995 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B2" t="str">
-        <v>7:59:47</v>
+        <v>9:48:56</v>
       </c>
       <c r="C2" t="str">
-        <v>3.3.3.38</v>
+        <v>10.125.17.20</v>
       </c>
       <c r="D2" t="str">
-        <v>KM 26 PUNTO SISTEMATIZADO</v>
+        <v>12 DE ABRIL</v>
       </c>
       <c r="E2" t="str">
-        <v>DAGUA</v>
-      </c>
-      <c r="F2" t="str">
-        <v>3,62</v>
-      </c>
-      <c r="G2" t="str">
-        <v>3,03</v>
-      </c>
-      <c r="H2" t="str">
-        <v>3,10</v>
-      </c>
-      <c r="I2" t="str">
-        <v>2,60</v>
+        <v>SUR</v>
+      </c>
+      <c r="F2">
+        <v>0.803</v>
+      </c>
+      <c r="G2">
+        <v>0.658</v>
+      </c>
+      <c r="H2">
+        <v>0.278</v>
+      </c>
+      <c r="I2">
+        <v>0.228</v>
       </c>
       <c r="J2" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K2" t="str">
         <v>5002</v>
       </c>
       <c r="L2" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B3" t="str">
-        <v>8:02:38</v>
+        <v>9:50:21</v>
       </c>
       <c r="C3" t="str">
-        <v>10.125.17.205</v>
+        <v>10.125.17.253</v>
       </c>
       <c r="D3" t="str">
-        <v>TRIUNFO</v>
+        <v>CORDOBA_SUR</v>
       </c>
       <c r="E3" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F3" t="str">
-        <v>3,00</v>
+        <v>13,5</v>
       </c>
       <c r="G3" t="str">
-        <v>2,52</v>
+        <v>11,3</v>
       </c>
       <c r="H3" t="str">
-        <v>2,68</v>
+        <v>13,0</v>
       </c>
       <c r="I3" t="str">
-        <v>2,25</v>
+        <v>10,9</v>
       </c>
       <c r="J3" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K3" t="str">
         <v>5002</v>
       </c>
       <c r="L3" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B4" t="str">
-        <v>8:27:12</v>
+        <v>9:52:45</v>
       </c>
       <c r="C4" t="str">
-        <v>10.125.17.89</v>
+        <v>10.125.17.86</v>
       </c>
       <c r="D4" t="str">
-        <v>LOS PINOS 2</v>
+        <v>CARROCERIAS</v>
       </c>
       <c r="E4" t="str">
         <v>SUR</v>
       </c>
       <c r="F4" t="str">
-        <v>2,16</v>
+        <v>54,2</v>
       </c>
       <c r="G4" t="str">
-        <v>1,81</v>
+        <v>45,5</v>
       </c>
       <c r="H4" t="str">
-        <v>1,62</v>
+        <v>53,5</v>
       </c>
       <c r="I4" t="str">
-        <v>1,36</v>
+        <v>44,9</v>
       </c>
       <c r="J4" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K4" t="str">
         <v>5002</v>
       </c>
       <c r="L4" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B5" t="str">
-        <v>8:52:21</v>
+        <v>9:52:56</v>
       </c>
       <c r="C5" t="str">
-        <v>10.125.17.94</v>
+        <v>10.125.17.30</v>
       </c>
       <c r="D5" t="str">
-        <v>INDEPENDENCIA 8</v>
+        <v>CASCAJAL 2</v>
       </c>
       <c r="E5" t="str">
         <v>SUR</v>
       </c>
       <c r="F5" t="str">
-        <v>5,63</v>
+        <v>14,7</v>
       </c>
       <c r="G5" t="str">
-        <v>4,73</v>
+        <v>12,3</v>
       </c>
       <c r="H5" t="str">
-        <v>5,45</v>
+        <v>14,0</v>
       </c>
       <c r="I5" t="str">
-        <v>4,57</v>
+        <v>11,7</v>
       </c>
       <c r="J5" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K5" t="str">
         <v>5002</v>
       </c>
       <c r="L5" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B6" t="str">
-        <v>8:59:39</v>
+        <v>9:53:09</v>
       </c>
       <c r="C6" t="str">
-        <v>10.120.11.82</v>
+        <v>10.125.17.29</v>
       </c>
       <c r="D6" t="str">
-        <v>LA PRIMERA E1</v>
+        <v>CASCAJAL</v>
       </c>
       <c r="E6" t="str">
-        <v>NORTE</v>
+        <v>SUR</v>
       </c>
       <c r="F6" t="str">
-        <v>13,8</v>
+        <v>3,00</v>
       </c>
       <c r="G6" t="str">
-        <v>11,6</v>
+        <v>2,52</v>
       </c>
       <c r="H6" t="str">
-        <v>13,4</v>
+        <v>2,52</v>
       </c>
       <c r="I6" t="str">
-        <v>11,2</v>
+        <v>2,11</v>
       </c>
       <c r="J6" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K6" t="str">
         <v>5002</v>
       </c>
       <c r="L6" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B7" t="str">
-        <v>9:14:55</v>
+        <v>9:53:20</v>
       </c>
       <c r="C7" t="str">
-        <v>10.40.100.70</v>
+        <v>10.125.16.35</v>
       </c>
       <c r="D7" t="str">
-        <v>ANTIGUO BANCAFE SISTEMATIZADO</v>
+        <v>BRISAS SOTANO</v>
       </c>
       <c r="E7" t="str">
-        <v>DAGUA</v>
+        <v>SUR</v>
       </c>
       <c r="F7" t="str">
-        <v>5,39</v>
+        <v>7,13</v>
       </c>
       <c r="G7" t="str">
-        <v>4,52</v>
+        <v>5,98</v>
       </c>
       <c r="H7" t="str">
-        <v>5,02</v>
+        <v>6,07</v>
       </c>
       <c r="I7" t="str">
-        <v>4,21</v>
+        <v>5,09</v>
       </c>
       <c r="J7" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K7" t="str">
         <v>5002</v>
       </c>
       <c r="L7" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B8" t="str">
-        <v>9:15:06</v>
+        <v>9:53:32</v>
       </c>
       <c r="C8" t="str">
-        <v>10.125.15.37</v>
+        <v>10.125.15.60</v>
       </c>
       <c r="D8" t="str">
-        <v>SANTA CRUZ</v>
+        <v>CALDAS</v>
       </c>
       <c r="E8" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F8" t="str">
-        <v>6,71</v>
+        <v>2,46</v>
       </c>
       <c r="G8" t="str">
-        <v>5,63</v>
+        <v>2,06</v>
       </c>
       <c r="H8" t="str">
-        <v>5,82</v>
+        <v>2,10</v>
       </c>
       <c r="I8" t="str">
-        <v>4,88</v>
+        <v>1,76</v>
       </c>
       <c r="J8" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K8" t="str">
         <v>5002</v>
       </c>
       <c r="L8" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B9" t="str">
-        <v>9:15:22</v>
+        <v>9:53:43</v>
       </c>
       <c r="C9" t="str">
-        <v>10.125.15.43</v>
+        <v>10.125.17.27</v>
       </c>
       <c r="D9" t="str">
-        <v>SAN LUIS 3</v>
+        <v>CABALPOMBO</v>
       </c>
       <c r="E9" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F9" t="str">
-        <v>6,95</v>
+        <v>51,1</v>
       </c>
       <c r="G9" t="str">
-        <v>5,83</v>
+        <v>42,9</v>
       </c>
       <c r="H9" t="str">
-        <v>5,83</v>
+        <v>49,3</v>
       </c>
       <c r="I9" t="str">
-        <v>4,89</v>
+        <v>41,4</v>
       </c>
       <c r="J9" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K9" t="str">
         <v>5002</v>
       </c>
       <c r="L9" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B10" t="str">
-        <v>9:15:33</v>
+        <v>9:53:54</v>
       </c>
       <c r="C10" t="str">
-        <v>10.125.15.42</v>
+        <v>10.125.16.32</v>
       </c>
       <c r="D10" t="str">
-        <v>SAN LUIS 1</v>
+        <v>BRISAS PLAZA SHOPPING</v>
       </c>
       <c r="E10" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F10" t="str">
-        <v>7,31</v>
+        <v>19,6</v>
       </c>
       <c r="G10" t="str">
-        <v>6,13</v>
+        <v>16,4</v>
       </c>
       <c r="H10" t="str">
-        <v>6,93</v>
+        <v>18,9</v>
       </c>
       <c r="I10" t="str">
-        <v>5,81</v>
+        <v>15,9</v>
       </c>
       <c r="J10" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K10" t="str">
         <v>5002</v>
       </c>
       <c r="L10" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B11" t="str">
-        <v>9:15:45</v>
+        <v>9:54:06</v>
       </c>
       <c r="C11" t="str">
-        <v>10.125.15.61</v>
+        <v>10.125.17.26</v>
       </c>
       <c r="D11" t="str">
-        <v>ROCKEFELLER 3</v>
+        <v>BOLIVAR 2</v>
       </c>
       <c r="E11" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F11" t="str">
-        <v>7,67</v>
+        <v>11,2</v>
       </c>
       <c r="G11" t="str">
-        <v>6,43</v>
+        <v>9,36</v>
       </c>
       <c r="H11" t="str">
-        <v>7,15</v>
+        <v>10,5</v>
       </c>
       <c r="I11" t="str">
-        <v>6,00</v>
+        <v>8,80</v>
       </c>
       <c r="J11" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K11" t="str">
         <v>5002</v>
       </c>
       <c r="L11" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B12" t="str">
-        <v>9:15:56</v>
+        <v>9:56:28</v>
       </c>
       <c r="C12" t="str">
-        <v>10.125.15.41</v>
+        <v>10.125.17.23</v>
       </c>
       <c r="D12" t="str">
-        <v>ROCKEFELLER 2</v>
+        <v>ANTONIO NARIÑO</v>
       </c>
       <c r="E12" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F12" t="str">
-        <v>9,20</v>
+        <v>7,67</v>
       </c>
       <c r="G12" t="str">
-        <v>7,72</v>
+        <v>6,43</v>
       </c>
       <c r="H12" t="str">
-        <v>8,63</v>
+        <v>7,33</v>
       </c>
       <c r="I12" t="str">
-        <v>7,24</v>
+        <v>6,14</v>
       </c>
       <c r="J12" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K12" t="str">
         <v>5002</v>
       </c>
       <c r="L12" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B13" t="str">
-        <v>9:16:06</v>
+        <v>9:56:40</v>
       </c>
       <c r="C13" t="str">
-        <v>10.125.15.40</v>
+        <v>10.125.17.21</v>
       </c>
       <c r="D13" t="str">
-        <v>ROCKEFELLER</v>
+        <v>6 DE ENERO 2</v>
       </c>
       <c r="E13" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F13" t="str">
-        <v>8,75</v>
+        <v>7,31</v>
       </c>
       <c r="G13" t="str">
-        <v>7,34</v>
+        <v>6,13</v>
       </c>
       <c r="H13" t="str">
-        <v>8,30</v>
+        <v>6,79</v>
       </c>
       <c r="I13" t="str">
-        <v>6,96</v>
+        <v>5,70</v>
       </c>
       <c r="J13" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K13" t="str">
         <v>5002</v>
       </c>
       <c r="L13" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B14" t="str">
-        <v>9:16:19</v>
+        <v>9:56:52</v>
       </c>
       <c r="C14" t="str">
-        <v>10.120.11.156</v>
+        <v>10.125.17.205</v>
       </c>
       <c r="D14" t="str">
-        <v>PUNTA DEL ESTE</v>
+        <v>TRIUNFO</v>
       </c>
       <c r="E14" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F14" t="str">
-        <v>14,2</v>
+        <v>3,25</v>
       </c>
       <c r="G14" t="str">
-        <v>11,9</v>
+        <v>2,72</v>
       </c>
       <c r="H14" t="str">
-        <v>14,0</v>
+        <v>2,92</v>
       </c>
       <c r="I14" t="str">
-        <v>11,7</v>
+        <v>2,45</v>
       </c>
       <c r="J14" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K14" t="str">
         <v>5002</v>
       </c>
       <c r="L14" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B15" t="str">
-        <v>9:16:35</v>
+        <v>9:57:03</v>
       </c>
       <c r="C15" t="str">
-        <v>10.125.15.70</v>
+        <v>10.125.17.58</v>
       </c>
       <c r="D15" t="str">
-        <v>PORTON MARINO</v>
+        <v>VISTA HERMOSA</v>
       </c>
       <c r="E15" t="str">
-        <v>CENTRO</v>
-      </c>
-      <c r="F15">
-        <v>0.197</v>
-      </c>
-      <c r="G15">
-        <v>0.161</v>
-      </c>
-      <c r="H15">
-        <v>0.08979999999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.0736</v>
+        <v>SUR</v>
+      </c>
+      <c r="F15" t="str">
+        <v>34,2</v>
+      </c>
+      <c r="G15" t="str">
+        <v>28,7</v>
+      </c>
+      <c r="H15" t="str">
+        <v>33,5</v>
+      </c>
+      <c r="I15" t="str">
+        <v>28,1</v>
       </c>
       <c r="J15" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K15" t="str">
         <v>5002</v>
       </c>
       <c r="L15" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B16" t="str">
-        <v>9:16:46</v>
+        <v>9:57:16</v>
       </c>
       <c r="C16" t="str">
-        <v>10.120.11.44</v>
+        <v>10.125.17.46</v>
       </c>
       <c r="D16" t="str">
-        <v>PIÑAL 2</v>
+        <v>RNUEVE</v>
       </c>
       <c r="E16" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F16" t="str">
-        <v>6,26</v>
+        <v>5,45</v>
       </c>
       <c r="G16" t="str">
-        <v>5,25</v>
+        <v>4,57</v>
       </c>
       <c r="H16" t="str">
-        <v>5,86</v>
+        <v>4,83</v>
       </c>
       <c r="I16" t="str">
-        <v>4,92</v>
+        <v>4,05</v>
       </c>
       <c r="J16" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K16" t="str">
         <v>5002</v>
       </c>
       <c r="L16" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B17" t="str">
-        <v>9:16:59</v>
+        <v>9:57:27</v>
       </c>
       <c r="C17" t="str">
-        <v>10.125.15.39</v>
+        <v>10.125.17.48</v>
       </c>
       <c r="D17" t="str">
-        <v>ORIENTE 2</v>
+        <v>RETEN E2</v>
       </c>
       <c r="E17" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F17" t="str">
-        <v>5,03</v>
+        <v>13,9</v>
       </c>
       <c r="G17" t="str">
-        <v>4,22</v>
+        <v>11,7</v>
       </c>
       <c r="H17" t="str">
-        <v>4,42</v>
+        <v>13,3</v>
       </c>
       <c r="I17" t="str">
-        <v>3,71</v>
+        <v>11,2</v>
       </c>
       <c r="J17" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K17" t="str">
         <v>5002</v>
       </c>
       <c r="L17" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B18" t="str">
-        <v>9:17:10</v>
+        <v>9:57:39</v>
       </c>
       <c r="C18" t="str">
-        <v>10.125.15.38</v>
+        <v>10.125.17.56</v>
       </c>
       <c r="D18" t="str">
-        <v>ORIENTE</v>
+        <v>PALMASPAN</v>
       </c>
       <c r="E18" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F18" t="str">
-        <v>4,50</v>
+        <v>8,87</v>
       </c>
       <c r="G18" t="str">
-        <v>3,77</v>
+        <v>7,44</v>
       </c>
       <c r="H18" t="str">
-        <v>4,21</v>
+        <v>8,24</v>
       </c>
       <c r="I18" t="str">
-        <v>3,53</v>
+        <v>6,91</v>
       </c>
       <c r="J18" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K18" t="str">
         <v>5002</v>
       </c>
       <c r="L18" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B19" t="str">
-        <v>9:17:21</v>
+        <v>9:57:50</v>
       </c>
       <c r="C19" t="str">
-        <v>10.125.15.79</v>
+        <v>10.125.17.47</v>
       </c>
       <c r="D19" t="str">
-        <v>MIRAFLORES 2</v>
+        <v>RETEN E1</v>
       </c>
       <c r="E19" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F19" t="str">
-        <v>7,25</v>
+        <v>20,9</v>
       </c>
       <c r="G19" t="str">
-        <v>6,08</v>
+        <v>17,5</v>
       </c>
       <c r="H19" t="str">
-        <v>6,74</v>
+        <v>20,4</v>
       </c>
       <c r="I19" t="str">
-        <v>5,65</v>
+        <v>17,1</v>
       </c>
       <c r="J19" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K19" t="str">
         <v>5002</v>
       </c>
       <c r="L19" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B20" t="str">
-        <v>9:17:32</v>
+        <v>9:58:01</v>
       </c>
       <c r="C20" t="str">
-        <v>10.125.15.75</v>
+        <v>10.125.17.59</v>
       </c>
       <c r="D20" t="str">
-        <v>MARIA EUGENIA 2</v>
+        <v>NUEVA GRANADA 2</v>
       </c>
       <c r="E20" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F20" t="str">
-        <v>7,91</v>
+        <v>57,4</v>
       </c>
       <c r="G20" t="str">
-        <v>6,64</v>
+        <v>48,1</v>
       </c>
       <c r="H20" t="str">
-        <v>6,84</v>
+        <v>55,6</v>
       </c>
       <c r="I20" t="str">
-        <v>5,74</v>
+        <v>46,6</v>
       </c>
       <c r="J20" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K20" t="str">
         <v>5002</v>
       </c>
       <c r="L20" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B21" t="str">
-        <v>9:17:43</v>
+        <v>9:58:12</v>
       </c>
       <c r="C21" t="str">
-        <v>10.125.15.44</v>
+        <v>10.125.17.45</v>
       </c>
       <c r="D21" t="str">
-        <v>MARIA EUGENIA</v>
+        <v>NUEVA GRANADA</v>
       </c>
       <c r="E21" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F21" t="str">
-        <v>6,65</v>
+        <v>12,2</v>
       </c>
       <c r="G21" t="str">
-        <v>5,58</v>
+        <v>10,3</v>
       </c>
       <c r="H21" t="str">
-        <v>5,92</v>
+        <v>11,4</v>
       </c>
       <c r="I21" t="str">
-        <v>4,97</v>
+        <v>9,60</v>
       </c>
       <c r="J21" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K21" t="str">
         <v>5002</v>
       </c>
       <c r="L21" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B22" t="str">
-        <v>9:17:54</v>
+        <v>9:58:25</v>
       </c>
       <c r="C22" t="str">
-        <v>10.125.15.35</v>
+        <v>10.125.17.43</v>
       </c>
       <c r="D22" t="str">
-        <v>LA 14</v>
+        <v>LOS PINOS</v>
       </c>
       <c r="E22" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F22" t="str">
-        <v>5,63</v>
+        <v>31,1</v>
       </c>
       <c r="G22" t="str">
-        <v>4,73</v>
+        <v>26,1</v>
       </c>
       <c r="H22" t="str">
-        <v>5,11</v>
+        <v>30,6</v>
       </c>
       <c r="I22" t="str">
-        <v>4,29</v>
+        <v>25,6</v>
       </c>
       <c r="J22" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K22" t="str">
         <v>5002</v>
       </c>
       <c r="L22" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B23" t="str">
-        <v>9:18:05</v>
+        <v>9:58:37</v>
       </c>
       <c r="C23" t="str">
-        <v>10.125.15.34</v>
+        <v>10.125.17.51</v>
       </c>
       <c r="D23" t="str">
-        <v>KENNEDY 2</v>
+        <v>LAS PIEDRAS</v>
       </c>
       <c r="E23" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F23" t="str">
-        <v>3,24</v>
+        <v>12,6</v>
       </c>
       <c r="G23" t="str">
-        <v>2,72</v>
+        <v>10,6</v>
       </c>
       <c r="H23" t="str">
-        <v>3,02</v>
+        <v>12,4</v>
       </c>
       <c r="I23" t="str">
-        <v>2,54</v>
+        <v>10,4</v>
       </c>
       <c r="J23" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K23" t="str">
         <v>5002</v>
       </c>
       <c r="L23" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B24" t="str">
-        <v>9:18:21</v>
+        <v>9:58:54</v>
       </c>
       <c r="C24" t="str">
-        <v>10.125.15.32</v>
+        <v>10.125.17.89</v>
       </c>
       <c r="D24" t="str">
-        <v>JUAN 23 II</v>
+        <v>LOS PINOS 2</v>
       </c>
       <c r="E24" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F24" t="str">
-        <v>3,72</v>
+        <v>4,98</v>
       </c>
       <c r="G24" t="str">
-        <v>3,12</v>
+        <v>4,17</v>
       </c>
       <c r="H24" t="str">
-        <v>3,36</v>
+        <v>3,91</v>
       </c>
       <c r="I24" t="str">
-        <v>2,82</v>
+        <v>3,28</v>
       </c>
       <c r="J24" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K24" t="str">
         <v>5002</v>
       </c>
       <c r="L24" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B25" t="str">
-        <v>9:18:32</v>
+        <v>9:59:04</v>
       </c>
       <c r="C25" t="str">
-        <v>10.125.15.29</v>
+        <v>10.125.17.66</v>
       </c>
       <c r="D25" t="str">
-        <v>JUAN 23 E2</v>
+        <v>MATIA</v>
       </c>
       <c r="E25" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F25" t="str">
-        <v>3,38</v>
+        <v>17,0</v>
       </c>
       <c r="G25" t="str">
-        <v>2,83</v>
+        <v>14,2</v>
       </c>
       <c r="H25" t="str">
-        <v>3,15</v>
+        <v>16,6</v>
       </c>
       <c r="I25" t="str">
-        <v>2,64</v>
+        <v>13,9</v>
       </c>
       <c r="J25" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K25" t="str">
         <v>5002</v>
       </c>
       <c r="L25" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B26" t="str">
-        <v>9:18:44</v>
+        <v>9:59:17</v>
       </c>
       <c r="C26" t="str">
-        <v>10.125.15.28</v>
+        <v>10.125.17.180</v>
       </c>
       <c r="D26" t="str">
-        <v>JUAN 23 E1</v>
+        <v>INDEPENDENCIA 9 BETPLAY</v>
       </c>
       <c r="E26" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F26" t="str">
-        <v>6,11</v>
+        <v>5,81</v>
       </c>
       <c r="G26" t="str">
-        <v>5,13</v>
+        <v>4,88</v>
       </c>
       <c r="H26" t="str">
-        <v>5,54</v>
+        <v>4,75</v>
       </c>
       <c r="I26" t="str">
-        <v>4,65</v>
+        <v>3,98</v>
       </c>
       <c r="J26" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K26" t="str">
         <v>5002</v>
       </c>
       <c r="L26" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B27" t="str">
-        <v>9:18:55</v>
+        <v>9:59:28</v>
       </c>
       <c r="C27" t="str">
-        <v>10.125.15.77</v>
+        <v>10.125.17.94</v>
       </c>
       <c r="D27" t="str">
-        <v>JUAN 23 3</v>
+        <v>INDEPENDENCIA 8</v>
       </c>
       <c r="E27" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F27" t="str">
-        <v>6,83</v>
+        <v>16,7</v>
       </c>
       <c r="G27" t="str">
-        <v>5,73</v>
+        <v>14,0</v>
       </c>
       <c r="H27" t="str">
-        <v>6,56</v>
+        <v>16,1</v>
       </c>
       <c r="I27" t="str">
-        <v>5,50</v>
+        <v>13,5</v>
       </c>
       <c r="J27" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K27" t="str">
         <v>5002</v>
       </c>
       <c r="L27" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B28" t="str">
-        <v>9:19:09</v>
+        <v>9:59:40</v>
       </c>
       <c r="C28" t="str">
-        <v>10.125.15.51</v>
+        <v>10.125.17.64</v>
       </c>
       <c r="D28" t="str">
-        <v>EUCARISTICO</v>
+        <v>LA FORTALEZA</v>
       </c>
       <c r="E28" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F28" t="str">
-        <v>8,87</v>
+        <v>35,8</v>
       </c>
       <c r="G28" t="str">
-        <v>7,44</v>
+        <v>30,0</v>
       </c>
       <c r="H28" t="str">
-        <v>8,11</v>
+        <v>34,9</v>
       </c>
       <c r="I28" t="str">
-        <v>6,80</v>
+        <v>29,3</v>
       </c>
       <c r="J28" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K28" t="str">
         <v>5002</v>
       </c>
       <c r="L28" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B29" t="str">
-        <v>9:19:22</v>
+        <v>9:59:52</v>
       </c>
       <c r="C29" t="str">
-        <v>10.125.15.93</v>
+        <v>10.125.17.42</v>
       </c>
       <c r="D29" t="str">
-        <v>EL CAMPIN</v>
+        <v>LAS AMERICAS</v>
       </c>
       <c r="E29" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F29" t="str">
-        <v>6,45</v>
+        <v>14,9</v>
       </c>
       <c r="G29" t="str">
-        <v>5,41</v>
+        <v>12,5</v>
       </c>
       <c r="H29" t="str">
-        <v>5,92</v>
+        <v>14,5</v>
       </c>
       <c r="I29" t="str">
-        <v>4,97</v>
+        <v>12,2</v>
       </c>
       <c r="J29" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K29" t="str">
         <v>5002</v>
       </c>
       <c r="L29" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B30" t="str">
-        <v>9:19:33</v>
+        <v>10:00:04</v>
       </c>
       <c r="C30" t="str">
-        <v>10.125.15.26</v>
+        <v>10.125.17.57</v>
       </c>
       <c r="D30" t="str">
-        <v>CHUCHOFONG</v>
+        <v>INDEPENDENCIA 6</v>
       </c>
       <c r="E30" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F30" t="str">
-        <v>5,04</v>
+        <v>4,92</v>
       </c>
       <c r="G30" t="str">
-        <v>4,23</v>
+        <v>4,12</v>
       </c>
       <c r="H30" t="str">
-        <v>4,72</v>
+        <v>3,69</v>
       </c>
       <c r="I30" t="str">
-        <v>3,96</v>
+        <v>3,09</v>
       </c>
       <c r="J30" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K30" t="str">
         <v>5002</v>
       </c>
       <c r="L30" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B31" t="str">
-        <v>9:19:44</v>
+        <v>10:00:17</v>
       </c>
       <c r="C31" t="str">
-        <v>10.125.15.80</v>
+        <v>10.125.15.63</v>
       </c>
       <c r="D31" t="str">
-        <v>CEMENTERIO 2</v>
+        <v>LA CAMPIÑA</v>
       </c>
       <c r="E31" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F31" t="str">
-        <v>5,87</v>
+        <v>9,88</v>
       </c>
       <c r="G31" t="str">
-        <v>4,93</v>
+        <v>8,29</v>
       </c>
       <c r="H31" t="str">
-        <v>5,32</v>
+        <v>9,38</v>
       </c>
       <c r="I31" t="str">
-        <v>4,46</v>
+        <v>7,87</v>
       </c>
       <c r="J31" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K31" t="str">
         <v>5002</v>
       </c>
       <c r="L31" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B32" t="str">
-        <v>9:19:55</v>
+        <v>10:00:29</v>
       </c>
       <c r="C32" t="str">
-        <v>10.125.15.57</v>
+        <v>10.125.17.41</v>
       </c>
       <c r="D32" t="str">
-        <v>CDA VIA ALTERNA</v>
+        <v>INDEPENDENCIA 5</v>
       </c>
       <c r="E32" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F32" t="str">
-        <v>2,40</v>
+        <v>8,51</v>
       </c>
       <c r="G32" t="str">
-        <v>2,01</v>
+        <v>7,14</v>
       </c>
       <c r="H32" t="str">
-        <v>2,30</v>
+        <v>8,03</v>
       </c>
       <c r="I32" t="str">
-        <v>1,93</v>
+        <v>6,73</v>
       </c>
       <c r="J32" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K32" t="str">
         <v>5002</v>
       </c>
       <c r="L32" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B33" t="str">
-        <v>9:20:08</v>
+        <v>10:00:40</v>
       </c>
       <c r="C33" t="str">
-        <v>10.125.15.91</v>
+        <v>10.125.17.40</v>
       </c>
       <c r="D33" t="str">
-        <v>CDA BUENAVENTURA</v>
+        <v>INDEPENDENCIA 4</v>
       </c>
       <c r="E33" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F33" t="str">
-        <v>5,69</v>
+        <v>7,80</v>
       </c>
       <c r="G33" t="str">
-        <v>4,78</v>
+        <v>6,54</v>
       </c>
       <c r="H33" t="str">
-        <v>5,19</v>
+        <v>7,30</v>
       </c>
       <c r="I33" t="str">
-        <v>4,36</v>
+        <v>6,12</v>
       </c>
       <c r="J33" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K33" t="str">
         <v>5002</v>
       </c>
       <c r="L33" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B34" t="str">
-        <v>9:20:19</v>
+        <v>10:00:51</v>
       </c>
       <c r="C34" t="str">
-        <v>10.125.15.25</v>
+        <v>10.125.17.38</v>
       </c>
       <c r="D34" t="str">
-        <v>BOSQUE</v>
+        <v>INDEPENDENCIA 2</v>
       </c>
       <c r="E34" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F34" t="str">
-        <v>7,19</v>
+        <v>7,37</v>
       </c>
       <c r="G34" t="str">
-        <v>6,03</v>
+        <v>6,18</v>
       </c>
       <c r="H34" t="str">
-        <v>6,99</v>
+        <v>6,91</v>
       </c>
       <c r="I34" t="str">
-        <v>5,86</v>
+        <v>5,79</v>
       </c>
       <c r="J34" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K34" t="str">
         <v>5002</v>
       </c>
       <c r="L34" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B35" t="str">
-        <v>9:20:30</v>
+        <v>10:03:12</v>
       </c>
       <c r="C35" t="str">
-        <v>10.125.15.64</v>
+        <v>10.125.17.36</v>
       </c>
       <c r="D35" t="str">
-        <v>BELLAVISTA 9</v>
+        <v>INDEPENDENCIA 1 E2</v>
       </c>
       <c r="E35" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F35" t="str">
-        <v>7,31</v>
+        <v>20,8</v>
       </c>
       <c r="G35" t="str">
-        <v>6,13</v>
+        <v>17,5</v>
       </c>
       <c r="H35" t="str">
-        <v>6,96</v>
+        <v>20,2</v>
       </c>
       <c r="I35" t="str">
-        <v>5,84</v>
+        <v>16,9</v>
       </c>
       <c r="J35" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K35" t="str">
         <v>5002</v>
       </c>
       <c r="L35" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B36" t="str">
-        <v>9:20:43</v>
+        <v>10:03:27</v>
       </c>
       <c r="C36" t="str">
-        <v>10.125.15.95</v>
+        <v>10.125.15.59</v>
       </c>
       <c r="D36" t="str">
-        <v>BELLAVISTA 7</v>
+        <v>INDEPENDENCIA 10</v>
       </c>
       <c r="E36" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F36" t="str">
-        <v>5,46</v>
+        <v>13,8</v>
       </c>
       <c r="G36" t="str">
-        <v>4,58</v>
+        <v>11,6</v>
       </c>
       <c r="H36" t="str">
-        <v>4,97</v>
+        <v>13,5</v>
       </c>
       <c r="I36" t="str">
-        <v>4,17</v>
+        <v>11,3</v>
       </c>
       <c r="J36" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K36" t="str">
         <v>5002</v>
       </c>
       <c r="L36" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B37" t="str">
-        <v>9:20:54</v>
+        <v>10:03:39</v>
       </c>
       <c r="C37" t="str">
-        <v>10.125.15.92</v>
+        <v>10.125.17.35</v>
       </c>
       <c r="D37" t="str">
-        <v>BELLAVISTA 6</v>
+        <v>GRANCOLOMBIANA</v>
       </c>
       <c r="E37" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F37" t="str">
-        <v>7,85</v>
+        <v>3,78</v>
       </c>
       <c r="G37" t="str">
-        <v>6,58</v>
+        <v>3,17</v>
       </c>
       <c r="H37" t="str">
-        <v>7,36</v>
+        <v>3,13</v>
       </c>
       <c r="I37" t="str">
-        <v>6,17</v>
+        <v>2,63</v>
       </c>
       <c r="J37" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K37" t="str">
         <v>5002</v>
       </c>
       <c r="L37" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B38" t="str">
-        <v>9:21:05</v>
+        <v>10:03:50</v>
       </c>
       <c r="C38" t="str">
-        <v>10.125.15.23</v>
+        <v>10.125.17.37</v>
       </c>
       <c r="D38" t="str">
-        <v>BELLAVISTA 4 E2</v>
+        <v>INDEPENDENCIA 1 E1</v>
       </c>
       <c r="E38" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F38" t="str">
-        <v>1,92</v>
+        <v>18,0</v>
       </c>
       <c r="G38" t="str">
-        <v>1,61</v>
+        <v>15,1</v>
       </c>
       <c r="H38" t="str">
-        <v>1,46</v>
+        <v>17,2</v>
       </c>
       <c r="I38" t="str">
-        <v>1,22</v>
+        <v>14,4</v>
       </c>
       <c r="J38" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K38" t="str">
         <v>5002</v>
       </c>
       <c r="L38" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B39" t="str">
-        <v>9:21:18</v>
+        <v>10:04:03</v>
       </c>
       <c r="C39" t="str">
-        <v>10.125.15.20</v>
+        <v>10.125.15.54</v>
       </c>
       <c r="D39" t="str">
-        <v>BELLAVISTA 3</v>
+        <v>GAMBOA LA FONDA PAISA</v>
       </c>
       <c r="E39" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F39" t="str">
-        <v>4,98</v>
+        <v>1,50</v>
       </c>
       <c r="G39" t="str">
-        <v>4,17</v>
+        <v>1,26</v>
       </c>
       <c r="H39" t="str">
-        <v>4,44</v>
-      </c>
-      <c r="I39" t="str">
-        <v>3,72</v>
+        <v>1,11</v>
+      </c>
+      <c r="I39">
+        <v>0.927</v>
       </c>
       <c r="J39" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K39" t="str">
         <v>5002</v>
       </c>
       <c r="L39" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B40" t="str">
-        <v>9:21:29</v>
+        <v>10:04:15</v>
       </c>
       <c r="C40" t="str">
-        <v>10.125.15.19</v>
+        <v>10.125.17.34</v>
       </c>
       <c r="D40" t="str">
-        <v>BELLAVISTA 2</v>
+        <v>EL CARMEN</v>
       </c>
       <c r="E40" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F40" t="str">
-        <v>4,32</v>
+        <v>2,22</v>
       </c>
       <c r="G40" t="str">
-        <v>3,62</v>
+        <v>1,86</v>
       </c>
       <c r="H40" t="str">
-        <v>4,17</v>
+        <v>2,08</v>
       </c>
       <c r="I40" t="str">
-        <v>3,50</v>
+        <v>1,75</v>
       </c>
       <c r="J40" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K40" t="str">
         <v>5002</v>
       </c>
       <c r="L40" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B41" t="str">
-        <v>9:21:41</v>
+        <v>10:04:28</v>
       </c>
       <c r="C41" t="str">
-        <v>10.125.15.21</v>
+        <v>10.125.17.33</v>
       </c>
       <c r="D41" t="str">
-        <v>BELLAVISTA 10</v>
+        <v>EL CAMBIO</v>
       </c>
       <c r="E41" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F41" t="str">
-        <v>5,81</v>
+        <v>52,7</v>
       </c>
       <c r="G41" t="str">
-        <v>4,88</v>
+        <v>44,2</v>
       </c>
       <c r="H41" t="str">
-        <v>5,63</v>
+        <v>51,8</v>
       </c>
       <c r="I41" t="str">
-        <v>4,72</v>
+        <v>43,4</v>
       </c>
       <c r="J41" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K41" t="str">
         <v>5002</v>
       </c>
       <c r="L41" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B42" t="str">
-        <v>9:21:52</v>
+        <v>10:04:41</v>
       </c>
       <c r="C42" t="str">
-        <v>10.125.15.65</v>
+        <v>10.125.17.62</v>
       </c>
       <c r="D42" t="str">
-        <v>BELLAVISTA 1</v>
+        <v>EL COLON</v>
       </c>
       <c r="E42" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F42" t="str">
-        <v>4,08</v>
+        <v>6,41</v>
       </c>
       <c r="G42" t="str">
-        <v>3,42</v>
+        <v>5,38</v>
       </c>
       <c r="H42" t="str">
-        <v>3,88</v>
+        <v>5,88</v>
       </c>
       <c r="I42" t="str">
-        <v>3,26</v>
+        <v>4,93</v>
       </c>
       <c r="J42" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K42" t="str">
         <v>5002</v>
       </c>
       <c r="L42" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B43" t="str">
-        <v>9:22:04</v>
+        <v>10:04:52</v>
       </c>
       <c r="C43" t="str">
-        <v>10.125.15.36</v>
+        <v>10.125.17.67</v>
       </c>
       <c r="D43" t="str">
-        <v>14 DE JULIO 2</v>
+        <v>CRISTAL 2</v>
       </c>
       <c r="E43" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F43" t="str">
-        <v>11,3</v>
+        <v>16,8</v>
       </c>
       <c r="G43" t="str">
-        <v>9,45</v>
+        <v>14,1</v>
       </c>
       <c r="H43" t="str">
-        <v>10,9</v>
+        <v>16,2</v>
       </c>
       <c r="I43" t="str">
-        <v>9,16</v>
+        <v>13,6</v>
       </c>
       <c r="J43" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.17.28</v>
       </c>
       <c r="K43" t="str">
         <v>5002</v>
       </c>
       <c r="L43" t="str">
-        <v>ADMIN</v>
+        <v>SUR</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B44" t="str">
-        <v>9:22:15</v>
+        <v>10:07:08</v>
       </c>
       <c r="C44" t="str">
-        <v>192.168.41.13</v>
+        <v>10.125.15.35</v>
       </c>
       <c r="D44" t="str">
-        <v>DEMO</v>
+        <v>LA 14</v>
       </c>
       <c r="E44" t="str">
-        <v/>
+        <v>CENTRO</v>
       </c>
       <c r="F44" t="str">
-        <v>341</v>
+        <v>43,2</v>
       </c>
       <c r="G44" t="str">
-        <v>286</v>
+        <v>36,2</v>
       </c>
       <c r="H44" t="str">
-        <v>340</v>
+        <v>42,2</v>
       </c>
       <c r="I44" t="str">
-        <v>285</v>
+        <v>35,4</v>
       </c>
       <c r="J44" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K44" t="str">
         <v>5002</v>
       </c>
       <c r="L44" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B45" t="str">
-        <v>9:22:28</v>
+        <v>10:07:19</v>
       </c>
       <c r="C45" t="str">
-        <v>10.120.11.20</v>
+        <v>10.125.15.43</v>
       </c>
       <c r="D45" t="str">
-        <v>FUNERARIA</v>
+        <v>SAN LUIS 3</v>
       </c>
       <c r="E45" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F45" t="str">
-        <v>3,43</v>
+        <v>3,78</v>
       </c>
       <c r="G45" t="str">
-        <v>2,87</v>
+        <v>3,17</v>
       </c>
       <c r="H45" t="str">
-        <v>2,59</v>
+        <v>3,51</v>
       </c>
       <c r="I45" t="str">
-        <v>2,17</v>
+        <v>2,95</v>
       </c>
       <c r="J45" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K45" t="str">
         <v>5002</v>
       </c>
       <c r="L45" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B46" t="str">
-        <v>9:22:39</v>
+        <v>10:07:31</v>
       </c>
       <c r="C46" t="str">
-        <v>10.120.11.22</v>
+        <v>10.125.15.37</v>
       </c>
       <c r="D46" t="str">
-        <v>FIRME</v>
+        <v>SANTA CRUZ</v>
       </c>
       <c r="E46" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F46" t="str">
-        <v>7,07</v>
+        <v>11,1</v>
       </c>
       <c r="G46" t="str">
-        <v>5,93</v>
+        <v>9,30</v>
       </c>
       <c r="H46" t="str">
-        <v>6,52</v>
+        <v>10,6</v>
       </c>
       <c r="I46" t="str">
-        <v>5,47</v>
+        <v>8,91</v>
       </c>
       <c r="J46" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K46" t="str">
         <v>5002</v>
       </c>
       <c r="L46" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B47" t="str">
-        <v>9:22:51</v>
+        <v>10:07:42</v>
       </c>
       <c r="C47" t="str">
-        <v>10.120.11.204</v>
+        <v>10.125.15.40</v>
       </c>
       <c r="D47" t="str">
-        <v>EL VELERO</v>
+        <v>ROCKEFELLER</v>
       </c>
       <c r="E47" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F47" t="str">
-        <v>13,5</v>
+        <v>113</v>
       </c>
       <c r="G47" t="str">
-        <v>11,3</v>
+        <v>95,1</v>
       </c>
       <c r="H47" t="str">
-        <v>13,1</v>
+        <v>113</v>
       </c>
       <c r="I47" t="str">
-        <v>11,0</v>
+        <v>94,9</v>
       </c>
       <c r="J47" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K47" t="str">
         <v>5002</v>
       </c>
       <c r="L47" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B48" t="str">
-        <v>9:23:03</v>
+        <v>10:07:53</v>
       </c>
       <c r="C48" t="str">
-        <v>10.120.11.149</v>
+        <v>10.125.15.61</v>
       </c>
       <c r="D48" t="str">
-        <v>EL FIRME 3</v>
+        <v>ROCKEFELLER 3</v>
       </c>
       <c r="E48" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F48" t="str">
-        <v>2,82</v>
+        <v>13,8</v>
       </c>
       <c r="G48" t="str">
-        <v>2,37</v>
+        <v>11,6</v>
       </c>
       <c r="H48" t="str">
-        <v>2,03</v>
+        <v>13,5</v>
       </c>
       <c r="I48" t="str">
-        <v>1,70</v>
+        <v>11,3</v>
       </c>
       <c r="J48" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K48" t="str">
         <v>5002</v>
       </c>
       <c r="L48" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B49" t="str">
-        <v>9:23:14</v>
+        <v>10:08:05</v>
       </c>
       <c r="C49" t="str">
-        <v>10.120.11.240</v>
+        <v>10.120.11.44</v>
       </c>
       <c r="D49" t="str">
-        <v>EL FIRME 2</v>
+        <v>PIÑAL 2</v>
       </c>
       <c r="E49" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F49" t="str">
-        <v>7,61</v>
+        <v>3,62</v>
       </c>
       <c r="G49" t="str">
-        <v>6,39</v>
+        <v>3,04</v>
       </c>
       <c r="H49" t="str">
-        <v>6,73</v>
+        <v>3,33</v>
       </c>
       <c r="I49" t="str">
-        <v>5,64</v>
+        <v>2,79</v>
       </c>
       <c r="J49" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K49" t="str">
         <v>5002</v>
       </c>
       <c r="L49" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B50" t="str">
-        <v>9:23:25</v>
+        <v>10:08:16</v>
       </c>
       <c r="C50" t="str">
-        <v>10.120.11.52</v>
+        <v>10.125.15.42</v>
       </c>
       <c r="D50" t="str">
-        <v>EFEOCHO</v>
+        <v>SAN LUIS 1</v>
       </c>
       <c r="E50" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F50" t="str">
-        <v>6,17</v>
+        <v>15,9</v>
       </c>
       <c r="G50" t="str">
-        <v>5,18</v>
+        <v>13,3</v>
       </c>
       <c r="H50" t="str">
-        <v>5,29</v>
+        <v>15,5</v>
       </c>
       <c r="I50" t="str">
-        <v>4,44</v>
+        <v>13,0</v>
       </c>
       <c r="J50" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K50" t="str">
         <v>5002</v>
       </c>
       <c r="L50" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B51" t="str">
-        <v>9:23:36</v>
+        <v>10:08:28</v>
       </c>
       <c r="C51" t="str">
-        <v>10.120.11.121</v>
+        <v>10.120.11.70</v>
       </c>
       <c r="D51" t="str">
-        <v>CORDILLERA 3</v>
+        <v>SAN LUIS 2</v>
       </c>
       <c r="E51" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F51" t="str">
-        <v>16,8</v>
+        <v>2,30</v>
       </c>
       <c r="G51" t="str">
-        <v>14,1</v>
+        <v>1,93</v>
       </c>
       <c r="H51" t="str">
-        <v>16,1</v>
+        <v>2,22</v>
       </c>
       <c r="I51" t="str">
-        <v>13,5</v>
+        <v>1,86</v>
       </c>
       <c r="J51" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K51" t="str">
         <v>5002</v>
       </c>
       <c r="L51" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B52" t="str">
-        <v>9:23:46</v>
+        <v>10:08:39</v>
       </c>
       <c r="C52" t="str">
-        <v>10.120.11.84</v>
+        <v>10.125.15.41</v>
       </c>
       <c r="D52" t="str">
-        <v>CORDILLERA</v>
+        <v>ROCKEFELLER 2</v>
       </c>
       <c r="E52" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F52" t="str">
-        <v>14,6</v>
+        <v>23,2</v>
       </c>
       <c r="G52" t="str">
-        <v>12,3</v>
+        <v>19,5</v>
       </c>
       <c r="H52" t="str">
-        <v>14,4</v>
+        <v>22,8</v>
       </c>
       <c r="I52" t="str">
-        <v>12,1</v>
+        <v>19,1</v>
       </c>
       <c r="J52" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K52" t="str">
         <v>5002</v>
       </c>
       <c r="L52" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B53" t="str">
-        <v>9:23:58</v>
+        <v>10:08:50</v>
       </c>
       <c r="C53" t="str">
-        <v>10.120.11.150</v>
+        <v>10.120.11.156</v>
       </c>
       <c r="D53" t="str">
-        <v>CORDILLERA 2</v>
+        <v>PUNTA DEL ESTE</v>
       </c>
       <c r="E53" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F53" t="str">
-        <v>5,40</v>
+        <v>6,13</v>
       </c>
       <c r="G53" t="str">
-        <v>4,53</v>
+        <v>5,15</v>
       </c>
       <c r="H53" t="str">
-        <v>4,80</v>
+        <v>5,77</v>
       </c>
       <c r="I53" t="str">
-        <v>4,03</v>
+        <v>4,84</v>
       </c>
       <c r="J53" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K53" t="str">
         <v>5002</v>
       </c>
       <c r="L53" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B54" t="str">
-        <v>9:24:09</v>
+        <v>10:09:02</v>
       </c>
       <c r="C54" t="str">
-        <v>10.120.11.60</v>
+        <v>10.125.15.39</v>
       </c>
       <c r="D54" t="str">
-        <v>CINCO BOCAS E1</v>
+        <v>ORIENTE 2</v>
       </c>
       <c r="E54" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F54" t="str">
-        <v>3,60</v>
+        <v>6,12</v>
       </c>
       <c r="G54" t="str">
-        <v>3,02</v>
+        <v>5,13</v>
       </c>
       <c r="H54" t="str">
-        <v>2,98</v>
+        <v>5,78</v>
       </c>
       <c r="I54" t="str">
-        <v>2,50</v>
+        <v>4,85</v>
       </c>
       <c r="J54" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K54" t="str">
         <v>5002</v>
       </c>
       <c r="L54" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B55" t="str">
-        <v>9:24:19</v>
+        <v>10:09:45</v>
       </c>
       <c r="C55" t="str">
-        <v>172.16.20.117</v>
+        <v>10.125.15.70</v>
       </c>
       <c r="D55" t="str">
-        <v>CHORLAVI E4</v>
+        <v>PORTON MARINO</v>
       </c>
       <c r="E55" t="str">
-        <v>NORTE</v>
-      </c>
-      <c r="F55" t="str">
-        <v>107</v>
-      </c>
-      <c r="G55" t="str">
-        <v>89,5</v>
-      </c>
-      <c r="H55" t="str">
-        <v>106</v>
-      </c>
-      <c r="I55" t="str">
-        <v>89,0</v>
+        <v>CENTRO</v>
+      </c>
+      <c r="F55">
+        <v>0.134</v>
+      </c>
+      <c r="G55">
+        <v>0.11</v>
+      </c>
+      <c r="H55">
+        <v>0.0499</v>
+      </c>
+      <c r="I55">
+        <v>0.0409</v>
       </c>
       <c r="J55" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K55" t="str">
         <v>5002</v>
       </c>
       <c r="L55" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B56" t="str">
-        <v>9:24:30</v>
+        <v>10:09:56</v>
       </c>
       <c r="C56" t="str">
-        <v>172.16.20.116</v>
+        <v>10.125.15.38</v>
       </c>
       <c r="D56" t="str">
-        <v>CHORLAVI E3</v>
+        <v>ORIENTE</v>
       </c>
       <c r="E56" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F56" t="str">
-        <v>107</v>
+        <v>40,8</v>
       </c>
       <c r="G56" t="str">
-        <v>89,4</v>
+        <v>34,3</v>
       </c>
       <c r="H56" t="str">
-        <v>106</v>
+        <v>40,1</v>
       </c>
       <c r="I56" t="str">
-        <v>88,9</v>
+        <v>33,6</v>
       </c>
       <c r="J56" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K56" t="str">
         <v>5002</v>
       </c>
       <c r="L56" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B57" t="str">
-        <v>9:24:40</v>
+        <v>10:10:25</v>
       </c>
       <c r="C57" t="str">
-        <v>172.16.20.115</v>
+        <v>10.125.15.75</v>
       </c>
       <c r="D57" t="str">
-        <v>CHORLAVI E2</v>
+        <v>MARIA EUGENIA 2</v>
       </c>
       <c r="E57" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F57" t="str">
-        <v>107</v>
+        <v>69,2</v>
       </c>
       <c r="G57" t="str">
-        <v>89,5</v>
+        <v>58,0</v>
       </c>
       <c r="H57" t="str">
-        <v>106</v>
+        <v>68,1</v>
       </c>
       <c r="I57" t="str">
-        <v>89,0</v>
+        <v>57,1</v>
       </c>
       <c r="J57" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K57" t="str">
         <v>5002</v>
       </c>
       <c r="L57" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B58" t="str">
-        <v>9:24:51</v>
+        <v>10:10:37</v>
       </c>
       <c r="C58" t="str">
-        <v>10.120.11.25</v>
+        <v>10.125.15.79</v>
       </c>
       <c r="D58" t="str">
-        <v>CASABLANCA</v>
+        <v>MIRAFLORES 2</v>
       </c>
       <c r="E58" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F58" t="str">
-        <v>11,8</v>
+        <v>22,8</v>
       </c>
       <c r="G58" t="str">
-        <v>9,90</v>
+        <v>19,1</v>
       </c>
       <c r="H58" t="str">
-        <v>11,2</v>
+        <v>22,5</v>
       </c>
       <c r="I58" t="str">
-        <v>9,42</v>
+        <v>18,8</v>
       </c>
       <c r="J58" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K58" t="str">
         <v>5002</v>
       </c>
       <c r="L58" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B59" t="str">
-        <v>9:25:02</v>
+        <v>10:10:47</v>
       </c>
       <c r="C59" t="str">
-        <v>10.120.11.145</v>
+        <v>10.125.15.44</v>
       </c>
       <c r="D59" t="str">
-        <v>CAPRICHO</v>
+        <v>MARIA EUGENIA</v>
       </c>
       <c r="E59" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F59" t="str">
-        <v>7,49</v>
+        <v>63,7</v>
       </c>
       <c r="G59" t="str">
-        <v>6,29</v>
+        <v>53,4</v>
       </c>
       <c r="H59" t="str">
-        <v>7,17</v>
+        <v>63,1</v>
       </c>
       <c r="I59" t="str">
-        <v>6,02</v>
+        <v>53,0</v>
       </c>
       <c r="J59" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K59" t="str">
         <v>5002</v>
       </c>
       <c r="L59" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B60" t="str">
-        <v>9:25:13</v>
+        <v>10:11:00</v>
       </c>
       <c r="C60" t="str">
-        <v>10.120.11.85</v>
+        <v>10.125.15.32</v>
       </c>
       <c r="D60" t="str">
-        <v>CHONTICO</v>
+        <v>JUAN 23 II</v>
       </c>
       <c r="E60" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F60" t="str">
-        <v>7,91</v>
+        <v>6,05</v>
       </c>
       <c r="G60" t="str">
-        <v>6,63</v>
+        <v>5,08</v>
       </c>
       <c r="H60" t="str">
-        <v>7,36</v>
+        <v>5,75</v>
       </c>
       <c r="I60" t="str">
-        <v>6,17</v>
+        <v>4,82</v>
       </c>
       <c r="J60" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K60" t="str">
         <v>5002</v>
       </c>
       <c r="L60" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B61" t="str">
-        <v>9:25:23</v>
+        <v>10:11:14</v>
       </c>
       <c r="C61" t="str">
-        <v>10.120.11.57</v>
+        <v>10.125.15.33</v>
       </c>
       <c r="D61" t="str">
-        <v>ARGENTINA E1</v>
+        <v>KENNEDY</v>
       </c>
       <c r="E61" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F61" t="str">
-        <v>10,7</v>
+        <v>11,4</v>
       </c>
       <c r="G61" t="str">
-        <v>8,95</v>
+        <v>9,55</v>
       </c>
       <c r="H61" t="str">
-        <v>10,1</v>
+        <v>11,1</v>
       </c>
       <c r="I61" t="str">
-        <v>8,51</v>
+        <v>9,28</v>
       </c>
       <c r="J61" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K61" t="str">
         <v>5002</v>
       </c>
       <c r="L61" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B62" t="str">
-        <v>9:25:35</v>
+        <v>10:11:25</v>
       </c>
       <c r="C62" t="str">
-        <v>10.120.11.115</v>
+        <v>10.125.15.34</v>
       </c>
       <c r="D62" t="str">
-        <v>ALCALDIA</v>
+        <v>KENNEDY 2</v>
       </c>
       <c r="E62" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F62" t="str">
-        <v>4,44</v>
+        <v>8,16</v>
       </c>
       <c r="G62" t="str">
-        <v>3,72</v>
+        <v>6,84</v>
       </c>
       <c r="H62" t="str">
-        <v>3,91</v>
+        <v>7,75</v>
       </c>
       <c r="I62" t="str">
-        <v>3,28</v>
+        <v>6,50</v>
       </c>
       <c r="J62" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K62" t="str">
         <v>5002</v>
       </c>
       <c r="L62" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B63" t="str">
-        <v>9:28:00</v>
+        <v>10:11:36</v>
       </c>
       <c r="C63" t="str">
-        <v>10.120.11.26</v>
+        <v>10.125.15.29</v>
       </c>
       <c r="D63" t="str">
-        <v>1 DE MAYO E2</v>
+        <v>JUAN 23 E2</v>
       </c>
       <c r="E63" t="str">
-        <v>NORTE</v>
+        <v>CENTRO</v>
       </c>
       <c r="F63" t="str">
-        <v>7,79</v>
+        <v>13,2</v>
       </c>
       <c r="G63" t="str">
-        <v>6,53</v>
+        <v>11,1</v>
       </c>
       <c r="H63" t="str">
-        <v>7,40</v>
+        <v>12,8</v>
       </c>
       <c r="I63" t="str">
-        <v>6,21</v>
+        <v>10,8</v>
       </c>
       <c r="J63" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K63" t="str">
         <v>5002</v>
       </c>
       <c r="L63" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B64" t="str">
-        <v>9:28:11</v>
+        <v>10:11:47</v>
       </c>
       <c r="C64" t="str">
-        <v>10.40.100.72</v>
+        <v>10.125.15.77</v>
       </c>
       <c r="D64" t="str">
-        <v>RICAURTE SISTEMATIZADO</v>
+        <v>JUAN 23 3</v>
       </c>
       <c r="E64" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F64" t="str">
+        <v>12,2</v>
+      </c>
+      <c r="G64" t="str">
+        <v>10,2</v>
+      </c>
+      <c r="H64" t="str">
         <v>11,7</v>
       </c>
-      <c r="G64" t="str">
-        <v>9,85</v>
-      </c>
-      <c r="H64" t="str">
-        <v>10,9</v>
-      </c>
       <c r="I64" t="str">
-        <v>9,14</v>
+        <v>9,80</v>
       </c>
       <c r="J64" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K64" t="str">
         <v>5002</v>
       </c>
       <c r="L64" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B65" t="str">
-        <v>9:28:22</v>
+        <v>10:14:09</v>
       </c>
       <c r="C65" t="str">
-        <v>3.3.3.3</v>
+        <v>10.125.15.51</v>
       </c>
       <c r="D65" t="str">
-        <v>QUEREMAL- SISTEMATIZADO</v>
+        <v>EUCARISTICO</v>
       </c>
       <c r="E65" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F65" t="str">
-        <v>7,75</v>
+        <v>15,5</v>
       </c>
       <c r="G65" t="str">
-        <v>6,51</v>
+        <v>13,0</v>
       </c>
       <c r="H65" t="str">
-        <v>6,99</v>
+        <v>14,8</v>
       </c>
       <c r="I65" t="str">
-        <v>5,87</v>
+        <v>12,4</v>
       </c>
       <c r="J65" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K65" t="str">
         <v>5002</v>
       </c>
       <c r="L65" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B66" t="str">
-        <v>9:28:34</v>
+        <v>10:14:21</v>
       </c>
       <c r="C66" t="str">
-        <v>10.40.100.74</v>
+        <v>10.125.15.93</v>
       </c>
       <c r="D66" t="str">
-        <v>MAGDALENA SISTEMATIZADO</v>
+        <v>EL CAMPIN</v>
       </c>
       <c r="E66" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F66" t="str">
-        <v>2,98</v>
+        <v>8,28</v>
       </c>
       <c r="G66" t="str">
-        <v>2,50</v>
+        <v>6,94</v>
       </c>
       <c r="H66" t="str">
-        <v>2,65</v>
+        <v>7,99</v>
       </c>
       <c r="I66" t="str">
-        <v>2,23</v>
+        <v>6,71</v>
       </c>
       <c r="J66" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K66" t="str">
         <v>5002</v>
       </c>
       <c r="L66" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B67" t="str">
-        <v>9:28:45</v>
+        <v>10:14:33</v>
       </c>
       <c r="C67" t="str">
-        <v>3.3.3.23</v>
+        <v>10.125.15.83</v>
       </c>
       <c r="D67" t="str">
-        <v>PALMAR 2</v>
+        <v>EL ESTADIO 2</v>
       </c>
       <c r="E67" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F67" t="str">
-        <v>5,75</v>
+        <v>71,8</v>
       </c>
       <c r="G67" t="str">
-        <v>4,82</v>
+        <v>60,2</v>
       </c>
       <c r="H67" t="str">
-        <v>5,15</v>
+        <v>71,0</v>
       </c>
       <c r="I67" t="str">
-        <v>4,32</v>
+        <v>59,6</v>
       </c>
       <c r="J67" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K67" t="str">
         <v>5002</v>
       </c>
       <c r="L67" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B68" t="str">
-        <v>9:28:56</v>
+        <v>10:14:44</v>
       </c>
       <c r="C68" t="str">
-        <v>10.29.1.14</v>
+        <v>10.125.15.26</v>
       </c>
       <c r="D68" t="str">
-        <v>LA PAZ SISTEMATIZADO</v>
+        <v>CHUCHOFONG</v>
       </c>
       <c r="E68" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F68" t="str">
-        <v>11,8</v>
+        <v>16,4</v>
       </c>
       <c r="G68" t="str">
-        <v>9,90</v>
+        <v>13,7</v>
       </c>
       <c r="H68" t="str">
-        <v>11,1</v>
+        <v>15,9</v>
       </c>
       <c r="I68" t="str">
-        <v>9,28</v>
+        <v>13,3</v>
       </c>
       <c r="J68" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K68" t="str">
         <v>5002</v>
       </c>
       <c r="L68" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B69" t="str">
-        <v>9:29:09</v>
+        <v>10:14:56</v>
       </c>
       <c r="C69" t="str">
-        <v>3.3.3.2</v>
+        <v>10.125.15.57</v>
       </c>
       <c r="D69" t="str">
-        <v>KM30 SISTEMATIZADO</v>
+        <v>CDA VIA ALTERNA</v>
       </c>
       <c r="E69" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F69" t="str">
-        <v>6,18</v>
+        <v>32,1</v>
       </c>
       <c r="G69" t="str">
-        <v>5,18</v>
+        <v>26,9</v>
       </c>
       <c r="H69" t="str">
-        <v>5,87</v>
+        <v>31,7</v>
       </c>
       <c r="I69" t="str">
-        <v>4,93</v>
+        <v>26,6</v>
       </c>
       <c r="J69" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K69" t="str">
         <v>5002</v>
       </c>
       <c r="L69" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B70" t="str">
-        <v>9:29:20</v>
+        <v>10:15:07</v>
       </c>
       <c r="C70" t="str">
-        <v>3.3.3.38</v>
+        <v>10.125.15.25</v>
       </c>
       <c r="D70" t="str">
-        <v>KM 26 PUNTO SISTEMATIZADO</v>
+        <v>BOSQUE</v>
       </c>
       <c r="E70" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F70" t="str">
-        <v>4,47</v>
+        <v>35,7</v>
       </c>
       <c r="G70" t="str">
-        <v>3,75</v>
+        <v>29,9</v>
       </c>
       <c r="H70" t="str">
-        <v>3,89</v>
+        <v>35,1</v>
       </c>
       <c r="I70" t="str">
-        <v>3,26</v>
+        <v>29,4</v>
       </c>
       <c r="J70" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K70" t="str">
         <v>5002</v>
       </c>
       <c r="L70" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B71" t="str">
-        <v>9:29:31</v>
+        <v>10:15:18</v>
       </c>
       <c r="C71" t="str">
-        <v>10.40.100.91</v>
+        <v>10.125.15.145</v>
       </c>
       <c r="D71" t="str">
-        <v>HOSPITAL 2</v>
+        <v>BELLAVISTA 8</v>
       </c>
       <c r="E71" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F71" t="str">
-        <v>10,3</v>
+        <v>25,2</v>
       </c>
       <c r="G71" t="str">
-        <v>8,63</v>
+        <v>21,1</v>
       </c>
       <c r="H71" t="str">
-        <v>9,78</v>
+        <v>24,6</v>
       </c>
       <c r="I71" t="str">
-        <v>8,21</v>
+        <v>20,7</v>
       </c>
       <c r="J71" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K71" t="str">
         <v>5002</v>
       </c>
       <c r="L71" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B72" t="str">
-        <v>9:29:42</v>
+        <v>10:15:29</v>
       </c>
       <c r="C72" t="str">
-        <v>10.40.100.73</v>
+        <v>10.125.15.64</v>
       </c>
       <c r="D72" t="str">
-        <v>DAGUA CENTRAL SISTEMATIZADO</v>
+        <v>BELLAVISTA 9</v>
       </c>
       <c r="E72" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F72" t="str">
-        <v>11,8</v>
+        <v>86,0</v>
       </c>
       <c r="G72" t="str">
-        <v>9,90</v>
+        <v>72,1</v>
       </c>
       <c r="H72" t="str">
-        <v>10,7</v>
+        <v>84,9</v>
       </c>
       <c r="I72" t="str">
-        <v>8,94</v>
+        <v>71,3</v>
       </c>
       <c r="J72" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K72" t="str">
         <v>5002</v>
       </c>
       <c r="L72" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B73" t="str">
-        <v>9:29:56</v>
+        <v>10:15:41</v>
       </c>
       <c r="C73" t="str">
-        <v>3.3.3.41</v>
+        <v>10.125.15.92</v>
       </c>
       <c r="D73" t="str">
-        <v>CISNEROS SISTEMATIZADO</v>
+        <v>BELLAVISTA 6</v>
       </c>
       <c r="E73" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F73" t="str">
-        <v>1,66</v>
+        <v>73,4</v>
       </c>
       <c r="G73" t="str">
-        <v>1,39</v>
+        <v>61,5</v>
       </c>
       <c r="H73" t="str">
-        <v>1,27</v>
+        <v>72,1</v>
       </c>
       <c r="I73" t="str">
-        <v>1,07</v>
+        <v>60,5</v>
       </c>
       <c r="J73" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K73" t="str">
         <v>5002</v>
       </c>
       <c r="L73" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B74" t="str">
-        <v>9:30:06</v>
+        <v>10:15:53</v>
       </c>
       <c r="C74" t="str">
-        <v>3.3.3.56</v>
+        <v>10.125.15.95</v>
       </c>
       <c r="D74" t="str">
-        <v>COMERCIO KM 30</v>
+        <v>BELLAVISTA 7</v>
       </c>
       <c r="E74" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F74" t="str">
-        <v>4,18</v>
+        <v>7,73</v>
       </c>
       <c r="G74" t="str">
-        <v>3,51</v>
+        <v>6,48</v>
       </c>
       <c r="H74" t="str">
-        <v>4,03</v>
+        <v>7,29</v>
       </c>
       <c r="I74" t="str">
-        <v>3,38</v>
+        <v>6,11</v>
       </c>
       <c r="J74" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K74" t="str">
         <v>5002</v>
       </c>
       <c r="L74" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B75" t="str">
-        <v>9:30:32</v>
+        <v>10:16:04</v>
       </c>
       <c r="C75" t="str">
-        <v>10.125.17.67</v>
+        <v>10.125.15.23</v>
       </c>
       <c r="D75" t="str">
-        <v>CRISTAL 2</v>
+        <v>BELLAVISTA 4 E2</v>
       </c>
       <c r="E75" t="str">
-        <v>SUR</v>
+        <v>CENTRO</v>
       </c>
       <c r="F75" t="str">
-        <v>2,40</v>
+        <v>7,79</v>
       </c>
       <c r="G75" t="str">
-        <v>2,01</v>
+        <v>6,53</v>
       </c>
       <c r="H75" t="str">
-        <v>2,24</v>
+        <v>7,52</v>
       </c>
       <c r="I75" t="str">
-        <v>1,88</v>
+        <v>6,31</v>
       </c>
       <c r="J75" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K75" t="str">
         <v>5002</v>
       </c>
       <c r="L75" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B76" t="str">
-        <v>9:30:45</v>
+        <v>10:16:15</v>
       </c>
       <c r="C76" t="str">
-        <v>10.125.17.32</v>
+        <v>10.125.15.20</v>
       </c>
       <c r="D76" t="str">
-        <v>CRISTAL</v>
+        <v>BELLAVISTA 3</v>
       </c>
       <c r="E76" t="str">
-        <v>SUR</v>
+        <v>CENTRO</v>
       </c>
       <c r="F76" t="str">
-        <v>2,52</v>
+        <v>80,1</v>
       </c>
       <c r="G76" t="str">
-        <v>2,11</v>
+        <v>67,2</v>
       </c>
       <c r="H76" t="str">
-        <v>2,27</v>
+        <v>79,3</v>
       </c>
       <c r="I76" t="str">
-        <v>1,90</v>
+        <v>66,5</v>
       </c>
       <c r="J76" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K76" t="str">
         <v>5002</v>
       </c>
       <c r="L76" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B77" t="str">
-        <v>9:30:58</v>
+        <v>10:16:26</v>
       </c>
       <c r="C77" t="str">
-        <v>3.3.3.44</v>
+        <v>10.125.15.22</v>
       </c>
       <c r="D77" t="str">
-        <v>CIUDADELA COLPUERTOS</v>
+        <v>BELLAVISTA 4 E1</v>
       </c>
       <c r="E77" t="str">
-        <v>SUR</v>
+        <v>CENTRO</v>
       </c>
       <c r="F77" t="str">
-        <v>1,78</v>
+        <v>32,4</v>
       </c>
       <c r="G77" t="str">
-        <v>1,49</v>
+        <v>27,2</v>
       </c>
       <c r="H77" t="str">
-        <v>1,57</v>
+        <v>31,5</v>
       </c>
       <c r="I77" t="str">
-        <v>1,31</v>
+        <v>26,5</v>
       </c>
       <c r="J77" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K77" t="str">
         <v>5002</v>
       </c>
       <c r="L77" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B78" t="str">
-        <v>9:31:10</v>
+        <v>10:16:49</v>
       </c>
       <c r="C78" t="str">
-        <v>10.125.17.30</v>
+        <v>10.125.15.19</v>
       </c>
       <c r="D78" t="str">
-        <v>CASCAJAL 2</v>
+        <v>BELLAVISTA 2</v>
       </c>
       <c r="E78" t="str">
-        <v>SUR</v>
+        <v>CENTRO</v>
       </c>
       <c r="F78" t="str">
-        <v>4,62</v>
+        <v>45,2</v>
       </c>
       <c r="G78" t="str">
-        <v>3,87</v>
+        <v>37,9</v>
       </c>
       <c r="H78" t="str">
-        <v>4,18</v>
+        <v>44,4</v>
       </c>
       <c r="I78" t="str">
-        <v>3,50</v>
+        <v>37,2</v>
       </c>
       <c r="J78" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K78" t="str">
         <v>5002</v>
       </c>
       <c r="L78" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B79" t="str">
-        <v>9:31:22</v>
+        <v>10:17:00</v>
       </c>
       <c r="C79" t="str">
-        <v>10.125.17.29</v>
+        <v>10.125.15.65</v>
       </c>
       <c r="D79" t="str">
-        <v>CASCAJAL</v>
+        <v>BELLAVISTA 1</v>
       </c>
       <c r="E79" t="str">
-        <v>SUR</v>
+        <v>CENTRO</v>
       </c>
       <c r="F79" t="str">
-        <v>1,86</v>
+        <v>20,7</v>
       </c>
       <c r="G79" t="str">
-        <v>1,56</v>
+        <v>17,3</v>
       </c>
       <c r="H79" t="str">
-        <v>1,62</v>
+        <v>20,1</v>
       </c>
       <c r="I79" t="str">
-        <v>1,36</v>
+        <v>16,9</v>
       </c>
       <c r="J79" t="str">
-        <v>172.16.20.45</v>
+        <v>10.125.15.104</v>
       </c>
       <c r="K79" t="str">
         <v>5002</v>
       </c>
       <c r="L79" t="str">
-        <v>ADMIN</v>
+        <v>CENTRO</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B80" t="str">
-        <v>9:31:36</v>
+        <v>10:17:53</v>
       </c>
       <c r="C80" t="str">
-        <v>10.125.15.60</v>
+        <v>10.120.11.86</v>
       </c>
       <c r="D80" t="str">
-        <v>CALDAS</v>
+        <v>LA FONDA</v>
       </c>
       <c r="E80" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F80" t="str">
-        <v>2,34</v>
+        <v>3,54</v>
       </c>
       <c r="G80" t="str">
-        <v>1,96</v>
+        <v>2,97</v>
       </c>
       <c r="H80" t="str">
-        <v>1,85</v>
+        <v>3,25</v>
       </c>
       <c r="I80" t="str">
-        <v>1,55</v>
+        <v>2,72</v>
       </c>
       <c r="J80" t="str">
         <v>172.16.20.45</v>
@@ -3439,36 +3439,36 @@
         <v>5002</v>
       </c>
       <c r="L80" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B81" t="str">
-        <v>9:31:50</v>
+        <v>10:18:03</v>
       </c>
       <c r="C81" t="str">
-        <v>10.125.15.56</v>
+        <v>10.120.11.9</v>
       </c>
       <c r="D81" t="str">
-        <v>LA ABEJA</v>
+        <v>GIPPEZ E2</v>
       </c>
       <c r="E81" t="str">
         <v>NORTE</v>
       </c>
       <c r="F81" t="str">
-        <v>5,87</v>
+        <v>5,22</v>
       </c>
       <c r="G81" t="str">
-        <v>4,93</v>
+        <v>4,38</v>
       </c>
       <c r="H81" t="str">
-        <v>5,00</v>
+        <v>4,89</v>
       </c>
       <c r="I81" t="str">
-        <v>4,19</v>
+        <v>4,10</v>
       </c>
       <c r="J81" t="str">
         <v>172.16.20.45</v>
@@ -3477,36 +3477,36 @@
         <v>5002</v>
       </c>
       <c r="L81" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B82" t="str">
-        <v>9:32:01</v>
+        <v>10:18:15</v>
       </c>
       <c r="C82" t="str">
-        <v>10.125.16.35</v>
+        <v>10.120.11.185</v>
       </c>
       <c r="D82" t="str">
-        <v>BRISAS SOTANO</v>
+        <v>JORGE 1</v>
       </c>
       <c r="E82" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F82" t="str">
-        <v>13,7</v>
+        <v>13,5</v>
       </c>
       <c r="G82" t="str">
-        <v>11,5</v>
+        <v>11,3</v>
       </c>
       <c r="H82" t="str">
-        <v>12,7</v>
+        <v>12,9</v>
       </c>
       <c r="I82" t="str">
-        <v>10,7</v>
+        <v>10,8</v>
       </c>
       <c r="J82" t="str">
         <v>172.16.20.45</v>
@@ -3515,36 +3515,36 @@
         <v>5002</v>
       </c>
       <c r="L82" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B83" t="str">
-        <v>9:32:11</v>
+        <v>10:18:28</v>
       </c>
       <c r="C83" t="str">
-        <v>10.125.16.32</v>
+        <v>10.120.11.90</v>
       </c>
       <c r="D83" t="str">
-        <v>BRISAS PLAZA SHOPPING</v>
+        <v>LA ORO E1</v>
       </c>
       <c r="E83" t="str">
-        <v>SUR</v>
-      </c>
-      <c r="F83" t="str">
-        <v>12,6</v>
-      </c>
-      <c r="G83" t="str">
-        <v>10,6</v>
-      </c>
-      <c r="H83" t="str">
-        <v>12,2</v>
-      </c>
-      <c r="I83" t="str">
-        <v>10,2</v>
+        <v>NORTE</v>
+      </c>
+      <c r="F83">
+        <v>0.251</v>
+      </c>
+      <c r="G83">
+        <v>0.206</v>
+      </c>
+      <c r="H83">
+        <v>0.0599</v>
+      </c>
+      <c r="I83">
+        <v>0.049100000000000005</v>
       </c>
       <c r="J83" t="str">
         <v>172.16.20.45</v>
@@ -3553,36 +3553,36 @@
         <v>5002</v>
       </c>
       <c r="L83" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B84" t="str">
-        <v>9:32:24</v>
+        <v>10:18:39</v>
       </c>
       <c r="C84" t="str">
-        <v>10.125.17.26</v>
+        <v>10.120.11.65</v>
       </c>
       <c r="D84" t="str">
-        <v>BOLIVAR 2</v>
+        <v>GALERIA</v>
       </c>
       <c r="E84" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F84" t="str">
-        <v>6,07</v>
+        <v>3,42</v>
       </c>
       <c r="G84" t="str">
-        <v>5,09</v>
+        <v>2,87</v>
       </c>
       <c r="H84" t="str">
-        <v>5,42</v>
+        <v>2,94</v>
       </c>
       <c r="I84" t="str">
-        <v>4,55</v>
+        <v>2,47</v>
       </c>
       <c r="J84" t="str">
         <v>172.16.20.45</v>
@@ -3591,36 +3591,36 @@
         <v>5002</v>
       </c>
       <c r="L84" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B85" t="str">
-        <v>9:32:48</v>
+        <v>10:18:52</v>
       </c>
       <c r="C85" t="str">
-        <v>3.3.3.58</v>
+        <v>10.125.15.56</v>
       </c>
       <c r="D85" t="str">
-        <v>CORDOBA_SUR</v>
+        <v>LA ABEJA</v>
       </c>
       <c r="E85" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F85" t="str">
-        <v>1,30</v>
+        <v>3,90</v>
       </c>
       <c r="G85" t="str">
-        <v>1,09</v>
-      </c>
-      <c r="H85">
-        <v>0.631</v>
-      </c>
-      <c r="I85">
-        <v>0.517</v>
+        <v>3,27</v>
+      </c>
+      <c r="H85" t="str">
+        <v>3,45</v>
+      </c>
+      <c r="I85" t="str">
+        <v>2,89</v>
       </c>
       <c r="J85" t="str">
         <v>172.16.20.45</v>
@@ -3629,36 +3629,36 @@
         <v>5002</v>
       </c>
       <c r="L85" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B86" t="str">
-        <v>9:33:00</v>
+        <v>10:19:02</v>
       </c>
       <c r="C86" t="str">
-        <v>10.125.17.23</v>
+        <v>10.120.11.150</v>
       </c>
       <c r="D86" t="str">
-        <v>ANTONIO NARIÑO</v>
+        <v>CORDILLERA 2</v>
       </c>
       <c r="E86" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F86" t="str">
-        <v>5,22</v>
+        <v>16,1</v>
       </c>
       <c r="G86" t="str">
-        <v>4,38</v>
+        <v>13,5</v>
       </c>
       <c r="H86" t="str">
-        <v>4,78</v>
+        <v>15,8</v>
       </c>
       <c r="I86" t="str">
-        <v>4,01</v>
+        <v>13,2</v>
       </c>
       <c r="J86" t="str">
         <v>172.16.20.45</v>
@@ -3667,36 +3667,36 @@
         <v>5002</v>
       </c>
       <c r="L86" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B87" t="str">
-        <v>9:33:12</v>
+        <v>10:19:17</v>
       </c>
       <c r="C87" t="str">
-        <v>10.125.17.21</v>
+        <v>10.120.11.204</v>
       </c>
       <c r="D87" t="str">
-        <v>6 DE ENERO 2</v>
+        <v>EL VELERO</v>
       </c>
       <c r="E87" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F87" t="str">
-        <v>4,02</v>
+        <v>20,7</v>
       </c>
       <c r="G87" t="str">
-        <v>3,37</v>
+        <v>17,4</v>
       </c>
       <c r="H87" t="str">
-        <v>3,49</v>
+        <v>19,9</v>
       </c>
       <c r="I87" t="str">
-        <v>2,93</v>
+        <v>16,7</v>
       </c>
       <c r="J87" t="str">
         <v>172.16.20.45</v>
@@ -3705,36 +3705,36 @@
         <v>5002</v>
       </c>
       <c r="L87" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B88" t="str">
-        <v>9:33:36</v>
+        <v>10:19:27</v>
       </c>
       <c r="C88" t="str">
-        <v>10.125.17.20</v>
+        <v>10.120.11.20</v>
       </c>
       <c r="D88" t="str">
-        <v>12 DE ABRIL</v>
+        <v>FUNERARIA</v>
       </c>
       <c r="E88" t="str">
-        <v>SUR</v>
-      </c>
-      <c r="F88">
-        <v>0.435</v>
-      </c>
-      <c r="G88">
-        <v>0.356</v>
-      </c>
-      <c r="H88">
-        <v>0.077</v>
-      </c>
-      <c r="I88">
-        <v>0.0631</v>
+        <v>NORTE</v>
+      </c>
+      <c r="F88" t="str">
+        <v>18,9</v>
+      </c>
+      <c r="G88" t="str">
+        <v>15,8</v>
+      </c>
+      <c r="H88" t="str">
+        <v>18,3</v>
+      </c>
+      <c r="I88" t="str">
+        <v>15,3</v>
       </c>
       <c r="J88" t="str">
         <v>172.16.20.45</v>
@@ -3743,36 +3743,36 @@
         <v>5002</v>
       </c>
       <c r="L88" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B89" t="str">
-        <v>9:34:10</v>
+        <v>10:19:38</v>
       </c>
       <c r="C89" t="str">
-        <v>3.3.3.27</v>
+        <v>10.120.11.240</v>
       </c>
       <c r="D89" t="str">
-        <v>BOCANA</v>
+        <v>EL FIRME 2</v>
       </c>
       <c r="E89" t="str">
-        <v>RURAL</v>
+        <v>NORTE</v>
       </c>
       <c r="F89" t="str">
-        <v>1,17</v>
-      </c>
-      <c r="G89">
-        <v>0.982</v>
-      </c>
-      <c r="H89">
-        <v>0.984</v>
-      </c>
-      <c r="I89">
-        <v>0.806</v>
+        <v>19,5</v>
+      </c>
+      <c r="G89" t="str">
+        <v>16,4</v>
+      </c>
+      <c r="H89" t="str">
+        <v>18,8</v>
+      </c>
+      <c r="I89" t="str">
+        <v>15,8</v>
       </c>
       <c r="J89" t="str">
         <v>172.16.20.45</v>
@@ -3781,36 +3781,36 @@
         <v>5002</v>
       </c>
       <c r="L89" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B90" t="str">
-        <v>9:34:22</v>
+        <v>10:19:49</v>
       </c>
       <c r="C90" t="str">
-        <v>10.120.11.21</v>
+        <v>10.120.11.22</v>
       </c>
       <c r="D90" t="str">
-        <v>VIENTO LIBRE</v>
+        <v>FIRME</v>
       </c>
       <c r="E90" t="str">
         <v>NORTE</v>
       </c>
       <c r="F90" t="str">
-        <v>1,39</v>
+        <v>7,61</v>
       </c>
       <c r="G90" t="str">
-        <v>1,16</v>
+        <v>6,38</v>
       </c>
       <c r="H90" t="str">
-        <v>1,22</v>
+        <v>6,52</v>
       </c>
       <c r="I90" t="str">
-        <v>1,02</v>
+        <v>5,47</v>
       </c>
       <c r="J90" t="str">
         <v>172.16.20.45</v>
@@ -3819,36 +3819,36 @@
         <v>5002</v>
       </c>
       <c r="L90" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B91" t="str">
-        <v>9:34:32</v>
+        <v>10:20:00</v>
       </c>
       <c r="C91" t="str">
-        <v>10.120.11.11</v>
+        <v>10.120.11.149</v>
       </c>
       <c r="D91" t="str">
-        <v>VENUS E2</v>
+        <v>EL FIRME 3</v>
       </c>
       <c r="E91" t="str">
         <v>NORTE</v>
       </c>
       <c r="F91" t="str">
-        <v>10,0</v>
+        <v>8,04</v>
       </c>
       <c r="G91" t="str">
-        <v>8,40</v>
+        <v>6,74</v>
       </c>
       <c r="H91" t="str">
-        <v>8,55</v>
+        <v>7,43</v>
       </c>
       <c r="I91" t="str">
-        <v>7,17</v>
+        <v>6,23</v>
       </c>
       <c r="J91" t="str">
         <v>172.16.20.45</v>
@@ -3857,36 +3857,36 @@
         <v>5002</v>
       </c>
       <c r="L91" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B92" t="str">
-        <v>9:34:44</v>
+        <v>10:20:11</v>
       </c>
       <c r="C92" t="str">
-        <v>10.120.11.113</v>
+        <v>10.120.11.52</v>
       </c>
       <c r="D92" t="str">
-        <v>VENUS E1</v>
+        <v>EFEOCHO</v>
       </c>
       <c r="E92" t="str">
         <v>NORTE</v>
       </c>
       <c r="F92" t="str">
-        <v>10,1</v>
+        <v>30,4</v>
       </c>
       <c r="G92" t="str">
-        <v>8,50</v>
+        <v>25,5</v>
       </c>
       <c r="H92" t="str">
-        <v>9,88</v>
+        <v>29,7</v>
       </c>
       <c r="I92" t="str">
-        <v>8,29</v>
+        <v>24,9</v>
       </c>
       <c r="J92" t="str">
         <v>172.16.20.45</v>
@@ -3895,36 +3895,36 @@
         <v>5002</v>
       </c>
       <c r="L92" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B93" t="str">
-        <v>9:34:55</v>
+        <v>10:20:21</v>
       </c>
       <c r="C93" t="str">
-        <v>10.120.11.64</v>
+        <v>172.16.20.117</v>
       </c>
       <c r="D93" t="str">
-        <v>VALENCIA E3</v>
+        <v>CHORLAVI E4</v>
       </c>
       <c r="E93" t="str">
         <v>NORTE</v>
       </c>
       <c r="F93" t="str">
-        <v>12,6</v>
+        <v>112</v>
       </c>
       <c r="G93" t="str">
-        <v>10,6</v>
+        <v>94,2</v>
       </c>
       <c r="H93" t="str">
-        <v>12,0</v>
+        <v>112</v>
       </c>
       <c r="I93" t="str">
-        <v>10,1</v>
+        <v>93,9</v>
       </c>
       <c r="J93" t="str">
         <v>172.16.20.45</v>
@@ -3933,30 +3933,30 @@
         <v>5002</v>
       </c>
       <c r="L93" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B94" t="str">
-        <v>9:35:05</v>
+        <v>10:20:32</v>
       </c>
       <c r="C94" t="str">
-        <v>10.120.11.62</v>
+        <v>10.120.11.60</v>
       </c>
       <c r="D94" t="str">
-        <v>VALENCIA E1</v>
+        <v>CINCO BOCAS E1</v>
       </c>
       <c r="E94" t="str">
         <v>NORTE</v>
       </c>
       <c r="F94" t="str">
-        <v>15,5</v>
+        <v>15,6</v>
       </c>
       <c r="G94" t="str">
-        <v>13,0</v>
+        <v>13,1</v>
       </c>
       <c r="H94" t="str">
         <v>15,0</v>
@@ -3971,36 +3971,36 @@
         <v>5002</v>
       </c>
       <c r="L94" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B95" t="str">
-        <v>9:35:16</v>
+        <v>10:20:48</v>
       </c>
       <c r="C95" t="str">
-        <v>10.120.11.87</v>
+        <v>10.120.11.121</v>
       </c>
       <c r="D95" t="str">
-        <v>TERMINAL</v>
+        <v>CORDILLERA 3</v>
       </c>
       <c r="E95" t="str">
         <v>NORTE</v>
       </c>
       <c r="F95" t="str">
-        <v>7,37</v>
+        <v>32,9</v>
       </c>
       <c r="G95" t="str">
-        <v>6,18</v>
+        <v>27,6</v>
       </c>
       <c r="H95" t="str">
-        <v>6,83</v>
+        <v>32,2</v>
       </c>
       <c r="I95" t="str">
-        <v>5,73</v>
+        <v>27,0</v>
       </c>
       <c r="J95" t="str">
         <v>172.16.20.45</v>
@@ -4009,36 +4009,36 @@
         <v>5002</v>
       </c>
       <c r="L95" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B96" t="str">
-        <v>9:35:29</v>
+        <v>10:20:58</v>
       </c>
       <c r="C96" t="str">
-        <v>10.120.11.198</v>
+        <v>10.120.11.84</v>
       </c>
       <c r="D96" t="str">
-        <v>SANTA ROSA</v>
+        <v>CORDILLERA</v>
       </c>
       <c r="E96" t="str">
         <v>NORTE</v>
       </c>
       <c r="F96" t="str">
-        <v>7,01</v>
+        <v>38,9</v>
       </c>
       <c r="G96" t="str">
-        <v>5,88</v>
+        <v>32,6</v>
       </c>
       <c r="H96" t="str">
-        <v>6,31</v>
+        <v>38,0</v>
       </c>
       <c r="I96" t="str">
-        <v>5,30</v>
+        <v>31,9</v>
       </c>
       <c r="J96" t="str">
         <v>172.16.20.45</v>
@@ -4047,36 +4047,36 @@
         <v>5002</v>
       </c>
       <c r="L96" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B97" t="str">
-        <v>9:35:41</v>
+        <v>10:21:09</v>
       </c>
       <c r="C97" t="str">
-        <v>10.120.11.24</v>
+        <v>172.16.20.116</v>
       </c>
       <c r="D97" t="str">
-        <v>PLAYITA E2</v>
+        <v>CHORLAVI E3</v>
       </c>
       <c r="E97" t="str">
         <v>NORTE</v>
       </c>
       <c r="F97" t="str">
-        <v>2,89</v>
+        <v>112</v>
       </c>
       <c r="G97" t="str">
-        <v>2,42</v>
+        <v>94,4</v>
       </c>
       <c r="H97" t="str">
-        <v>2,33</v>
+        <v>112</v>
       </c>
       <c r="I97" t="str">
-        <v>1,95</v>
+        <v>94,0</v>
       </c>
       <c r="J97" t="str">
         <v>172.16.20.45</v>
@@ -4085,36 +4085,36 @@
         <v>5002</v>
       </c>
       <c r="L97" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B98" t="str">
-        <v>9:35:52</v>
+        <v>10:21:19</v>
       </c>
       <c r="C98" t="str">
-        <v>10.120.11.23</v>
+        <v>172.16.20.115</v>
       </c>
       <c r="D98" t="str">
-        <v>PLAYITA E1</v>
+        <v>CHORLAVI E2</v>
       </c>
       <c r="E98" t="str">
         <v>NORTE</v>
       </c>
       <c r="F98" t="str">
-        <v>2,88</v>
+        <v>112</v>
       </c>
       <c r="G98" t="str">
-        <v>2,42</v>
+        <v>94,3</v>
       </c>
       <c r="H98" t="str">
-        <v>2,51</v>
+        <v>112</v>
       </c>
       <c r="I98" t="str">
-        <v>2,10</v>
+        <v>94,0</v>
       </c>
       <c r="J98" t="str">
         <v>172.16.20.45</v>
@@ -4123,36 +4123,36 @@
         <v>5002</v>
       </c>
       <c r="L98" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B99" t="str">
-        <v>9:36:02</v>
+        <v>10:21:30</v>
       </c>
       <c r="C99" t="str">
-        <v>10.120.11.104</v>
+        <v>10.120.11.85</v>
       </c>
       <c r="D99" t="str">
-        <v>PALO SECO</v>
+        <v>CHONTICO</v>
       </c>
       <c r="E99" t="str">
         <v>NORTE</v>
       </c>
       <c r="F99" t="str">
+        <v>9,64</v>
+      </c>
+      <c r="G99" t="str">
         <v>8,09</v>
       </c>
-      <c r="G99" t="str">
-        <v>6,79</v>
-      </c>
       <c r="H99" t="str">
-        <v>7,92</v>
+        <v>9,27</v>
       </c>
       <c r="I99" t="str">
-        <v>6,64</v>
+        <v>7,78</v>
       </c>
       <c r="J99" t="str">
         <v>172.16.20.45</v>
@@ -4161,36 +4161,36 @@
         <v>5002</v>
       </c>
       <c r="L99" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B100" t="str">
-        <v>9:36:13</v>
+        <v>10:21:41</v>
       </c>
       <c r="C100" t="str">
-        <v>172.16.20.112</v>
+        <v>10.120.11.214</v>
       </c>
       <c r="D100" t="str">
-        <v>OFICINA PRINCIPAL E2</v>
+        <v>BETPLAY CORDILLERA 4 E2</v>
       </c>
       <c r="E100" t="str">
         <v>NORTE</v>
       </c>
       <c r="F100" t="str">
-        <v>114</v>
+        <v>38,1</v>
       </c>
       <c r="G100" t="str">
-        <v>95,3</v>
+        <v>32,0</v>
       </c>
       <c r="H100" t="str">
-        <v>113</v>
+        <v>37,2</v>
       </c>
       <c r="I100" t="str">
-        <v>95,0</v>
+        <v>31,2</v>
       </c>
       <c r="J100" t="str">
         <v>172.16.20.45</v>
@@ -4199,36 +4199,36 @@
         <v>5002</v>
       </c>
       <c r="L100" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B101" t="str">
-        <v>9:36:23</v>
+        <v>10:21:51</v>
       </c>
       <c r="C101" t="str">
-        <v>172.16.20.111</v>
+        <v>10.120.11.25</v>
       </c>
       <c r="D101" t="str">
-        <v>OFICINA PRINCIPAL E1</v>
+        <v>CASABLANCA</v>
       </c>
       <c r="E101" t="str">
         <v>NORTE</v>
       </c>
-      <c r="F101">
-        <v>1060</v>
+      <c r="F101" t="str">
+        <v>8,45</v>
       </c>
       <c r="G101" t="str">
-        <v>915</v>
-      </c>
-      <c r="H101">
-        <v>1060</v>
+        <v>7,09</v>
+      </c>
+      <c r="H101" t="str">
+        <v>8,07</v>
       </c>
       <c r="I101" t="str">
-        <v>914</v>
+        <v>6,77</v>
       </c>
       <c r="J101" t="str">
         <v>172.16.20.45</v>
@@ -4237,36 +4237,36 @@
         <v>5002</v>
       </c>
       <c r="L101" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B102" t="str">
-        <v>9:36:34</v>
+        <v>10:22:02</v>
       </c>
       <c r="C102" t="str">
-        <v>10.120.11.179</v>
+        <v>10.120.11.145</v>
       </c>
       <c r="D102" t="str">
-        <v>LLERAS 2</v>
+        <v>CAPRICHO</v>
       </c>
       <c r="E102" t="str">
         <v>NORTE</v>
       </c>
       <c r="F102" t="str">
-        <v>3,90</v>
+        <v>8,69</v>
       </c>
       <c r="G102" t="str">
-        <v>3,27</v>
+        <v>7,29</v>
       </c>
       <c r="H102" t="str">
-        <v>3,13</v>
+        <v>8,29</v>
       </c>
       <c r="I102" t="str">
-        <v>2,62</v>
+        <v>6,95</v>
       </c>
       <c r="J102" t="str">
         <v>172.16.20.45</v>
@@ -4275,36 +4275,36 @@
         <v>5002</v>
       </c>
       <c r="L102" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B103" t="str">
-        <v>9:36:45</v>
+        <v>10:22:14</v>
       </c>
       <c r="C103" t="str">
-        <v>10.120.11.29</v>
+        <v>10.120.11.57</v>
       </c>
       <c r="D103" t="str">
-        <v>LLERAS</v>
+        <v>ARGENTINA E1</v>
       </c>
       <c r="E103" t="str">
         <v>NORTE</v>
       </c>
       <c r="F103" t="str">
-        <v>3,30</v>
+        <v>23,1</v>
       </c>
       <c r="G103" t="str">
-        <v>2,77</v>
+        <v>19,3</v>
       </c>
       <c r="H103" t="str">
-        <v>3,04</v>
+        <v>22,3</v>
       </c>
       <c r="I103" t="str">
-        <v>2,55</v>
+        <v>18,7</v>
       </c>
       <c r="J103" t="str">
         <v>172.16.20.45</v>
@@ -4313,36 +4313,36 @@
         <v>5002</v>
       </c>
       <c r="L103" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B104" t="str">
-        <v>9:36:56</v>
+        <v>10:24:44</v>
       </c>
       <c r="C104" t="str">
-        <v>10.120.11.53</v>
+        <v>10.120.11.115</v>
       </c>
       <c r="D104" t="str">
-        <v>LA VIRGEN</v>
+        <v>ALCALDIA</v>
       </c>
       <c r="E104" t="str">
         <v>NORTE</v>
       </c>
       <c r="F104" t="str">
-        <v>2,95</v>
+        <v>6,83</v>
       </c>
       <c r="G104" t="str">
-        <v>2,47</v>
+        <v>5,73</v>
       </c>
       <c r="H104" t="str">
-        <v>2,46</v>
+        <v>5,96</v>
       </c>
       <c r="I104" t="str">
-        <v>2,06</v>
+        <v>5,00</v>
       </c>
       <c r="J104" t="str">
         <v>172.16.20.45</v>
@@ -4351,36 +4351,36 @@
         <v>5002</v>
       </c>
       <c r="L104" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B105" t="str">
-        <v>9:37:09</v>
+        <v>10:24:55</v>
       </c>
       <c r="C105" t="str">
-        <v>10.120.11.148</v>
+        <v>10.120.11.28</v>
       </c>
       <c r="D105" t="str">
-        <v>LA SEXTA 2</v>
+        <v>1 DE MAYO E1</v>
       </c>
       <c r="E105" t="str">
         <v>NORTE</v>
       </c>
       <c r="F105" t="str">
-        <v>3,90</v>
+        <v>7,25</v>
       </c>
       <c r="G105" t="str">
-        <v>3,27</v>
+        <v>6,08</v>
       </c>
       <c r="H105" t="str">
-        <v>3,53</v>
+        <v>6,99</v>
       </c>
       <c r="I105" t="str">
-        <v>2,96</v>
+        <v>5,86</v>
       </c>
       <c r="J105" t="str">
         <v>172.16.20.45</v>
@@ -4389,36 +4389,36 @@
         <v>5002</v>
       </c>
       <c r="L105" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B106" t="str">
-        <v>9:37:19</v>
+        <v>10:25:07</v>
       </c>
       <c r="C106" t="str">
-        <v>10.120.11.81</v>
+        <v>10.120.11.26</v>
       </c>
       <c r="D106" t="str">
-        <v>LA PRIMERA E2</v>
+        <v>1 DE MAYO E2</v>
       </c>
       <c r="E106" t="str">
         <v>NORTE</v>
       </c>
       <c r="F106" t="str">
-        <v>10,6</v>
+        <v>7,79</v>
       </c>
       <c r="G106" t="str">
-        <v>8,90</v>
+        <v>6,53</v>
       </c>
       <c r="H106" t="str">
-        <v>10,2</v>
+        <v>7,49</v>
       </c>
       <c r="I106" t="str">
-        <v>8,60</v>
+        <v>6,28</v>
       </c>
       <c r="J106" t="str">
         <v>172.16.20.45</v>
@@ -4427,36 +4427,36 @@
         <v>5002</v>
       </c>
       <c r="L106" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B107" t="str">
-        <v>9:37:30</v>
+        <v>10:25:18</v>
       </c>
       <c r="C107" t="str">
-        <v>10.120.11.82</v>
+        <v>10.120.11.113</v>
       </c>
       <c r="D107" t="str">
-        <v>LA PRIMERA E1</v>
+        <v>VENUS E1</v>
       </c>
       <c r="E107" t="str">
         <v>NORTE</v>
       </c>
       <c r="F107" t="str">
-        <v>13,3</v>
+        <v>20,3</v>
       </c>
       <c r="G107" t="str">
-        <v>11,2</v>
+        <v>17,0</v>
       </c>
       <c r="H107" t="str">
-        <v>12,6</v>
+        <v>19,3</v>
       </c>
       <c r="I107" t="str">
-        <v>10,6</v>
+        <v>16,2</v>
       </c>
       <c r="J107" t="str">
         <v>172.16.20.45</v>
@@ -4465,36 +4465,36 @@
         <v>5002</v>
       </c>
       <c r="L107" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B108" t="str">
-        <v>9:37:43</v>
+        <v>10:25:28</v>
       </c>
       <c r="C108" t="str">
-        <v>10.120.11.90</v>
+        <v>10.120.11.11</v>
       </c>
       <c r="D108" t="str">
-        <v>LA ORO E1</v>
+        <v>VENUS E2</v>
       </c>
       <c r="E108" t="str">
         <v>NORTE</v>
       </c>
       <c r="F108" t="str">
-        <v>3,61</v>
+        <v>17,4</v>
       </c>
       <c r="G108" t="str">
-        <v>3,03</v>
+        <v>14,6</v>
       </c>
       <c r="H108" t="str">
-        <v>3,02</v>
+        <v>17,0</v>
       </c>
       <c r="I108" t="str">
-        <v>2,53</v>
+        <v>14,2</v>
       </c>
       <c r="J108" t="str">
         <v>172.16.20.45</v>
@@ -4503,36 +4503,36 @@
         <v>5002</v>
       </c>
       <c r="L108" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B109" t="str">
-        <v>9:37:55</v>
+        <v>10:25:40</v>
       </c>
       <c r="C109" t="str">
-        <v>10.120.11.86</v>
+        <v>10.120.11.21</v>
       </c>
       <c r="D109" t="str">
-        <v>LA FONDA</v>
+        <v>VIENTO LIBRE</v>
       </c>
       <c r="E109" t="str">
         <v>NORTE</v>
       </c>
       <c r="F109" t="str">
-        <v>4,44</v>
+        <v>2,46</v>
       </c>
       <c r="G109" t="str">
-        <v>3,72</v>
+        <v>2,06</v>
       </c>
       <c r="H109" t="str">
-        <v>3,98</v>
+        <v>2,11</v>
       </c>
       <c r="I109" t="str">
-        <v>3,34</v>
+        <v>1,77</v>
       </c>
       <c r="J109" t="str">
         <v>172.16.20.45</v>
@@ -4541,36 +4541,36 @@
         <v>5002</v>
       </c>
       <c r="L109" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B110" t="str">
-        <v>9:38:10</v>
+        <v>10:25:51</v>
       </c>
       <c r="C110" t="str">
-        <v>3.3.3.31</v>
+        <v>10.120.11.63</v>
       </c>
       <c r="D110" t="str">
-        <v>LA ABEJA</v>
+        <v>VALENCIA E2</v>
       </c>
       <c r="E110" t="str">
         <v>NORTE</v>
       </c>
-      <c r="F110">
-        <v>1.015</v>
-      </c>
-      <c r="G110">
-        <v>0.831</v>
-      </c>
-      <c r="H110">
-        <v>0.857</v>
-      </c>
-      <c r="I110">
-        <v>0.702</v>
+      <c r="F110" t="str">
+        <v>20,8</v>
+      </c>
+      <c r="G110" t="str">
+        <v>17,5</v>
+      </c>
+      <c r="H110" t="str">
+        <v>20,2</v>
+      </c>
+      <c r="I110" t="str">
+        <v>16,9</v>
       </c>
       <c r="J110" t="str">
         <v>172.16.20.45</v>
@@ -4579,36 +4579,36 @@
         <v>5002</v>
       </c>
       <c r="L110" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B111" t="str">
-        <v>9:38:21</v>
+        <v>10:26:01</v>
       </c>
       <c r="C111" t="str">
-        <v>10.120.11.34</v>
+        <v>10.120.11.64</v>
       </c>
       <c r="D111" t="str">
-        <v>JORGE 2</v>
+        <v>VALENCIA E3</v>
       </c>
       <c r="E111" t="str">
         <v>NORTE</v>
       </c>
       <c r="F111" t="str">
-        <v>5,70</v>
+        <v>15,8</v>
       </c>
       <c r="G111" t="str">
-        <v>4,78</v>
+        <v>13,2</v>
       </c>
       <c r="H111" t="str">
-        <v>4,93</v>
+        <v>15,4</v>
       </c>
       <c r="I111" t="str">
-        <v>4,14</v>
+        <v>12,9</v>
       </c>
       <c r="J111" t="str">
         <v>172.16.20.45</v>
@@ -4617,36 +4617,36 @@
         <v>5002</v>
       </c>
       <c r="L111" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B112" t="str">
-        <v>9:38:32</v>
+        <v>10:26:12</v>
       </c>
       <c r="C112" t="str">
-        <v>10.120.11.185</v>
+        <v>10.120.11.62</v>
       </c>
       <c r="D112" t="str">
-        <v>JORGE 1</v>
+        <v>VALENCIA E1</v>
       </c>
       <c r="E112" t="str">
         <v>NORTE</v>
       </c>
       <c r="F112" t="str">
-        <v>5,10</v>
+        <v>12,4</v>
       </c>
       <c r="G112" t="str">
-        <v>4,27</v>
+        <v>10,4</v>
       </c>
       <c r="H112" t="str">
-        <v>4,84</v>
+        <v>12,1</v>
       </c>
       <c r="I112" t="str">
-        <v>4,06</v>
+        <v>10,2</v>
       </c>
       <c r="J112" t="str">
         <v>172.16.20.45</v>
@@ -4655,36 +4655,36 @@
         <v>5002</v>
       </c>
       <c r="L112" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B113" t="str">
-        <v>9:38:43</v>
+        <v>10:26:22</v>
       </c>
       <c r="C113" t="str">
-        <v>10.125.17.58</v>
+        <v>10.120.11.87</v>
       </c>
       <c r="D113" t="str">
-        <v>VISTA HERMOSA</v>
+        <v>TERMINAL</v>
       </c>
       <c r="E113" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F113" t="str">
-        <v>7,31</v>
+        <v>6,47</v>
       </c>
       <c r="G113" t="str">
-        <v>6,13</v>
+        <v>5,43</v>
       </c>
       <c r="H113" t="str">
-        <v>6,97</v>
+        <v>5,89</v>
       </c>
       <c r="I113" t="str">
-        <v>5,85</v>
+        <v>4,94</v>
       </c>
       <c r="J113" t="str">
         <v>172.16.20.45</v>
@@ -4693,36 +4693,36 @@
         <v>5002</v>
       </c>
       <c r="L113" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B114" t="str">
-        <v>9:38:55</v>
+        <v>10:26:34</v>
       </c>
       <c r="C114" t="str">
-        <v>10.125.17.46</v>
+        <v>10.120.11.198</v>
       </c>
       <c r="D114" t="str">
-        <v>RNUEVE</v>
+        <v>SANTA ROSA</v>
       </c>
       <c r="E114" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F114" t="str">
-        <v>3,48</v>
+        <v>7,55</v>
       </c>
       <c r="G114" t="str">
-        <v>2,92</v>
+        <v>6,34</v>
       </c>
       <c r="H114" t="str">
-        <v>3,06</v>
+        <v>6,99</v>
       </c>
       <c r="I114" t="str">
-        <v>2,57</v>
+        <v>5,86</v>
       </c>
       <c r="J114" t="str">
         <v>172.16.20.45</v>
@@ -4731,36 +4731,36 @@
         <v>5002</v>
       </c>
       <c r="L114" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B115" t="str">
-        <v>9:39:06</v>
+        <v>10:26:44</v>
       </c>
       <c r="C115" t="str">
-        <v>10.125.17.48</v>
+        <v>10.120.11.23</v>
       </c>
       <c r="D115" t="str">
-        <v>RETEN E2</v>
+        <v>PLAYITA E1</v>
       </c>
       <c r="E115" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F115" t="str">
-        <v>6,16</v>
+        <v>4,32</v>
       </c>
       <c r="G115" t="str">
-        <v>5,17</v>
+        <v>3,62</v>
       </c>
       <c r="H115" t="str">
-        <v>5,95</v>
+        <v>4,04</v>
       </c>
       <c r="I115" t="str">
-        <v>4,99</v>
+        <v>3,39</v>
       </c>
       <c r="J115" t="str">
         <v>172.16.20.45</v>
@@ -4769,36 +4769,36 @@
         <v>5002</v>
       </c>
       <c r="L115" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B116" t="str">
-        <v>9:39:19</v>
+        <v>10:26:55</v>
       </c>
       <c r="C116" t="str">
-        <v>10.125.17.47</v>
+        <v>10.120.11.104</v>
       </c>
       <c r="D116" t="str">
-        <v>RETEN E1</v>
+        <v>PALO SECO</v>
       </c>
       <c r="E116" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F116" t="str">
-        <v>5,04</v>
+        <v>12,8</v>
       </c>
       <c r="G116" t="str">
-        <v>4,22</v>
+        <v>10,8</v>
       </c>
       <c r="H116" t="str">
-        <v>4,70</v>
+        <v>12,4</v>
       </c>
       <c r="I116" t="str">
-        <v>3,94</v>
+        <v>10,4</v>
       </c>
       <c r="J116" t="str">
         <v>172.16.20.45</v>
@@ -4807,36 +4807,36 @@
         <v>5002</v>
       </c>
       <c r="L116" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B117" t="str">
-        <v>9:39:31</v>
+        <v>10:27:06</v>
       </c>
       <c r="C117" t="str">
-        <v>10.125.17.56</v>
+        <v>10.120.11.202</v>
       </c>
       <c r="D117" t="str">
-        <v>PALMASPAN</v>
+        <v>PALERMO</v>
       </c>
       <c r="E117" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F117" t="str">
-        <v>3,15</v>
+        <v>4,98</v>
       </c>
       <c r="G117" t="str">
-        <v>2,64</v>
+        <v>4,18</v>
       </c>
       <c r="H117" t="str">
-        <v>3,05</v>
+        <v>4,68</v>
       </c>
       <c r="I117" t="str">
-        <v>2,56</v>
+        <v>3,93</v>
       </c>
       <c r="J117" t="str">
         <v>172.16.20.45</v>
@@ -4845,36 +4845,36 @@
         <v>5002</v>
       </c>
       <c r="L117" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B118" t="str">
-        <v>9:40:05</v>
+        <v>10:27:16</v>
       </c>
       <c r="C118" t="str">
-        <v>10.125.15.18</v>
+        <v>172.16.20.112</v>
       </c>
       <c r="D118" t="str">
-        <v>MONTAÑITA</v>
+        <v>OFICINA PRINCIPAL E2</v>
       </c>
       <c r="E118" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F118" t="str">
-        <v>5,83</v>
+        <v>114</v>
       </c>
       <c r="G118" t="str">
-        <v>4,89</v>
+        <v>95,4</v>
       </c>
       <c r="H118" t="str">
-        <v>5,22</v>
+        <v>113</v>
       </c>
       <c r="I118" t="str">
-        <v>4,38</v>
+        <v>95,0</v>
       </c>
       <c r="J118" t="str">
         <v>172.16.20.45</v>
@@ -4883,36 +4883,36 @@
         <v>5002</v>
       </c>
       <c r="L118" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B119" t="str">
-        <v>9:40:16</v>
+        <v>10:27:27</v>
       </c>
       <c r="C119" t="str">
-        <v>10.125.17.66</v>
+        <v>10.120.11.29</v>
       </c>
       <c r="D119" t="str">
-        <v>MATIA</v>
+        <v>LLERAS</v>
       </c>
       <c r="E119" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F119" t="str">
-        <v>7,25</v>
+        <v>8,10</v>
       </c>
       <c r="G119" t="str">
-        <v>6,08</v>
+        <v>6,79</v>
       </c>
       <c r="H119" t="str">
-        <v>6,83</v>
+        <v>7,77</v>
       </c>
       <c r="I119" t="str">
-        <v>5,73</v>
+        <v>6,51</v>
       </c>
       <c r="J119" t="str">
         <v>172.16.20.45</v>
@@ -4921,36 +4921,36 @@
         <v>5002</v>
       </c>
       <c r="L119" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B120" t="str">
-        <v>9:40:30</v>
+        <v>10:27:39</v>
       </c>
       <c r="C120" t="str">
-        <v>10.125.17.43</v>
+        <v>10.120.11.179</v>
       </c>
       <c r="D120" t="str">
-        <v>LOS PINOS</v>
+        <v>LLERAS 2</v>
       </c>
       <c r="E120" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F120" t="str">
-        <v>3,24</v>
+        <v>7,85</v>
       </c>
       <c r="G120" t="str">
-        <v>2,72</v>
+        <v>6,59</v>
       </c>
       <c r="H120" t="str">
-        <v>3,07</v>
+        <v>7,60</v>
       </c>
       <c r="I120" t="str">
-        <v>2,58</v>
+        <v>6,38</v>
       </c>
       <c r="J120" t="str">
         <v>172.16.20.45</v>
@@ -4959,36 +4959,36 @@
         <v>5002</v>
       </c>
       <c r="L120" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B121" t="str">
-        <v>9:40:41</v>
+        <v>10:27:49</v>
       </c>
       <c r="C121" t="str">
-        <v>10.125.17.42</v>
+        <v>10.120.11.33</v>
       </c>
       <c r="D121" t="str">
-        <v>LAS AMERICAS</v>
+        <v>Local Esso34_Equ2</v>
       </c>
       <c r="E121" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F121" t="str">
-        <v>4,14</v>
+        <v>7,85</v>
       </c>
       <c r="G121" t="str">
-        <v>3,47</v>
+        <v>6,58</v>
       </c>
       <c r="H121" t="str">
-        <v>3,89</v>
+        <v>6,65</v>
       </c>
       <c r="I121" t="str">
-        <v>3,27</v>
+        <v>5,57</v>
       </c>
       <c r="J121" t="str">
         <v>172.16.20.45</v>
@@ -4997,36 +4997,36 @@
         <v>5002</v>
       </c>
       <c r="L121" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B122" t="str">
-        <v>9:40:54</v>
+        <v>10:28:00</v>
       </c>
       <c r="C122" t="str">
-        <v>10.125.15.63</v>
+        <v>10.120.11.32</v>
       </c>
       <c r="D122" t="str">
-        <v>LA CAMPIÑA</v>
+        <v>Local Esso34_Equ1</v>
       </c>
       <c r="E122" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F122" t="str">
-        <v>4,86</v>
+        <v>6,87</v>
       </c>
       <c r="G122" t="str">
-        <v>4,07</v>
+        <v>5,76</v>
       </c>
       <c r="H122" t="str">
-        <v>4,29</v>
+        <v>6,34</v>
       </c>
       <c r="I122" t="str">
-        <v>3,60</v>
+        <v>5,32</v>
       </c>
       <c r="J122" t="str">
         <v>172.16.20.45</v>
@@ -5035,36 +5035,36 @@
         <v>5002</v>
       </c>
       <c r="L122" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B123" t="str">
-        <v>9:41:06</v>
+        <v>10:28:11</v>
       </c>
       <c r="C123" t="str">
-        <v>10.125.17.94</v>
+        <v>10.120.11.53</v>
       </c>
       <c r="D123" t="str">
-        <v>INDEPENDENCIA 8</v>
+        <v>LA VIRGEN</v>
       </c>
       <c r="E123" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F123" t="str">
-        <v>5,75</v>
+        <v>5,40</v>
       </c>
       <c r="G123" t="str">
-        <v>4,83</v>
+        <v>4,53</v>
       </c>
       <c r="H123" t="str">
-        <v>5,47</v>
+        <v>4,37</v>
       </c>
       <c r="I123" t="str">
-        <v>4,58</v>
+        <v>3,67</v>
       </c>
       <c r="J123" t="str">
         <v>172.16.20.45</v>
@@ -5073,36 +5073,36 @@
         <v>5002</v>
       </c>
       <c r="L123" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B124" t="str">
-        <v>9:41:29</v>
+        <v>10:28:22</v>
       </c>
       <c r="C124" t="str">
-        <v>10.125.17.57</v>
+        <v>10.120.11.81</v>
       </c>
       <c r="D124" t="str">
-        <v>INDEPENDENCIA 6</v>
+        <v>LA PRIMERA E2</v>
       </c>
       <c r="E124" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F124" t="str">
-        <v>2,16</v>
+        <v>13,7</v>
       </c>
       <c r="G124" t="str">
-        <v>1,81</v>
+        <v>11,5</v>
       </c>
       <c r="H124" t="str">
-        <v>1,94</v>
+        <v>12,8</v>
       </c>
       <c r="I124" t="str">
-        <v>1,63</v>
+        <v>10,7</v>
       </c>
       <c r="J124" t="str">
         <v>172.16.20.45</v>
@@ -5111,36 +5111,36 @@
         <v>5002</v>
       </c>
       <c r="L124" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B125" t="str">
-        <v>9:41:41</v>
+        <v>10:28:33</v>
       </c>
       <c r="C125" t="str">
-        <v>10.125.17.41</v>
+        <v>10.120.11.148</v>
       </c>
       <c r="D125" t="str">
-        <v>INDEPENDENCIA 5</v>
+        <v>LA SEXTA 2</v>
       </c>
       <c r="E125" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F125" t="str">
-        <v>4,97</v>
+        <v>4,98</v>
       </c>
       <c r="G125" t="str">
         <v>4,17</v>
       </c>
       <c r="H125" t="str">
-        <v>4,59</v>
+        <v>3,81</v>
       </c>
       <c r="I125" t="str">
-        <v>3,85</v>
+        <v>3,20</v>
       </c>
       <c r="J125" t="str">
         <v>172.16.20.45</v>
@@ -5149,36 +5149,36 @@
         <v>5002</v>
       </c>
       <c r="L125" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B126" t="str">
-        <v>9:41:52</v>
+        <v>10:28:44</v>
       </c>
       <c r="C126" t="str">
-        <v>10.125.17.40</v>
+        <v>10.120.11.187</v>
       </c>
       <c r="D126" t="str">
-        <v>INDEPENDENCIA 4</v>
+        <v>LA PALERA 2</v>
       </c>
       <c r="E126" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F126" t="str">
-        <v>5,69</v>
+        <v>7,01</v>
       </c>
       <c r="G126" t="str">
-        <v>4,78</v>
+        <v>5,88</v>
       </c>
       <c r="H126" t="str">
-        <v>5,25</v>
+        <v>6,56</v>
       </c>
       <c r="I126" t="str">
-        <v>4,41</v>
+        <v>5,50</v>
       </c>
       <c r="J126" t="str">
         <v>172.16.20.45</v>
@@ -5187,36 +5187,36 @@
         <v>5002</v>
       </c>
       <c r="L126" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B127" t="str">
-        <v>9:42:03</v>
+        <v>10:28:55</v>
       </c>
       <c r="C127" t="str">
-        <v>10.125.17.38</v>
+        <v>10.120.11.82</v>
       </c>
       <c r="D127" t="str">
-        <v>INDEPENDENCIA 2</v>
+        <v>LA PRIMERA E1</v>
       </c>
       <c r="E127" t="str">
-        <v>SUR</v>
+        <v>NORTE</v>
       </c>
       <c r="F127" t="str">
-        <v>3,18</v>
+        <v>10,9</v>
       </c>
       <c r="G127" t="str">
-        <v>2,67</v>
+        <v>9,15</v>
       </c>
       <c r="H127" t="str">
-        <v>2,67</v>
+        <v>9,57</v>
       </c>
       <c r="I127" t="str">
-        <v>2,24</v>
+        <v>8,03</v>
       </c>
       <c r="J127" t="str">
         <v>172.16.20.45</v>
@@ -5225,36 +5225,36 @@
         <v>5002</v>
       </c>
       <c r="L127" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B128" t="str">
-        <v>9:42:18</v>
+        <v>10:29:39</v>
       </c>
       <c r="C128" t="str">
-        <v>10.125.17.36</v>
+        <v>10.40.100.84</v>
       </c>
       <c r="D128" t="str">
-        <v>INDEPENDENCIA 1 E2</v>
+        <v>EL VERGEL</v>
       </c>
       <c r="E128" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F128" t="str">
-        <v>4,62</v>
+        <v>13,1</v>
       </c>
       <c r="G128" t="str">
-        <v>3,87</v>
+        <v>11,0</v>
       </c>
       <c r="H128" t="str">
-        <v>4,19</v>
+        <v>12,3</v>
       </c>
       <c r="I128" t="str">
-        <v>3,51</v>
+        <v>10,4</v>
       </c>
       <c r="J128" t="str">
         <v>172.16.20.45</v>
@@ -5263,36 +5263,36 @@
         <v>5002</v>
       </c>
       <c r="L128" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B129" t="str">
-        <v>9:42:29</v>
+        <v>10:29:50</v>
       </c>
       <c r="C129" t="str">
-        <v>10.125.17.37</v>
+        <v>3.3.3.2</v>
       </c>
       <c r="D129" t="str">
-        <v>INDEPENDENCIA 1 E1</v>
+        <v>KM30 SISTEMATIZADO</v>
       </c>
       <c r="E129" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F129" t="str">
-        <v>7,61</v>
+        <v>3,43</v>
       </c>
       <c r="G129" t="str">
-        <v>6,38</v>
+        <v>2,88</v>
       </c>
       <c r="H129" t="str">
-        <v>7,19</v>
+        <v>2,94</v>
       </c>
       <c r="I129" t="str">
-        <v>6,03</v>
+        <v>2,47</v>
       </c>
       <c r="J129" t="str">
         <v>172.16.20.45</v>
@@ -5301,36 +5301,36 @@
         <v>5002</v>
       </c>
       <c r="L129" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B130" t="str">
-        <v>9:42:41</v>
+        <v>10:30:01</v>
       </c>
       <c r="C130" t="str">
-        <v>10.125.17.35</v>
+        <v>10.40.100.73</v>
       </c>
       <c r="D130" t="str">
-        <v>GRANCOLOMBIANA</v>
+        <v>DAGUA CENTRAL SISTEMATIZADO</v>
       </c>
       <c r="E130" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F130" t="str">
-        <v>1,62</v>
+        <v>13,9</v>
       </c>
       <c r="G130" t="str">
-        <v>1,36</v>
+        <v>11,7</v>
       </c>
       <c r="H130" t="str">
-        <v>1,16</v>
-      </c>
-      <c r="I130">
-        <v>0.969</v>
+        <v>13,5</v>
+      </c>
+      <c r="I130" t="str">
+        <v>11,3</v>
       </c>
       <c r="J130" t="str">
         <v>172.16.20.45</v>
@@ -5339,36 +5339,36 @@
         <v>5002</v>
       </c>
       <c r="L130" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B131" t="str">
-        <v>9:42:54</v>
+        <v>10:30:12</v>
       </c>
       <c r="C131" t="str">
-        <v>10.125.15.54</v>
+        <v>10.125.17.253</v>
       </c>
       <c r="D131" t="str">
-        <v>GAMBOA LA FONDA PAISA</v>
+        <v>CORDOBA_SUR</v>
       </c>
       <c r="E131" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F131" t="str">
-        <v>2,10</v>
+        <v>5,63</v>
       </c>
       <c r="G131" t="str">
-        <v>1,76</v>
+        <v>4,73</v>
       </c>
       <c r="H131" t="str">
-        <v>1,79</v>
+        <v>5,14</v>
       </c>
       <c r="I131" t="str">
-        <v>1,50</v>
+        <v>4,31</v>
       </c>
       <c r="J131" t="str">
         <v>172.16.20.45</v>
@@ -5377,36 +5377,36 @@
         <v>5002</v>
       </c>
       <c r="L131" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B132" t="str">
-        <v>9:43:08</v>
+        <v>10:30:23</v>
       </c>
       <c r="C132" t="str">
-        <v>10.125.17.62</v>
+        <v>10.40.100.91</v>
       </c>
       <c r="D132" t="str">
-        <v>EL COLON</v>
+        <v>HOSPITAL 2</v>
       </c>
       <c r="E132" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F132" t="str">
-        <v>3,00</v>
+        <v>14,3</v>
       </c>
       <c r="G132" t="str">
-        <v>2,52</v>
+        <v>12,0</v>
       </c>
       <c r="H132" t="str">
-        <v>2,35</v>
+        <v>13,7</v>
       </c>
       <c r="I132" t="str">
-        <v>1,98</v>
+        <v>11,5</v>
       </c>
       <c r="J132" t="str">
         <v>172.16.20.45</v>
@@ -5415,36 +5415,36 @@
         <v>5002</v>
       </c>
       <c r="L132" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B133" t="str">
-        <v>9:43:21</v>
+        <v>10:30:34</v>
       </c>
       <c r="C133" t="str">
-        <v>10.125.17.34</v>
+        <v>3.3.3.56</v>
       </c>
       <c r="D133" t="str">
-        <v>EL CARMEN</v>
+        <v>COMERCIO KM 30</v>
       </c>
       <c r="E133" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F133" t="str">
-        <v>1,20</v>
+        <v>3,00</v>
       </c>
       <c r="G133" t="str">
-        <v>1,01</v>
-      </c>
-      <c r="H133">
-        <v>0.781</v>
-      </c>
-      <c r="I133">
-        <v>0.64</v>
+        <v>2,52</v>
+      </c>
+      <c r="H133" t="str">
+        <v>2,74</v>
+      </c>
+      <c r="I133" t="str">
+        <v>2,30</v>
       </c>
       <c r="J133" t="str">
         <v>172.16.20.45</v>
@@ -5453,36 +5453,36 @@
         <v>5002</v>
       </c>
       <c r="L133" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B134" t="str">
-        <v>9:43:32</v>
+        <v>10:30:48</v>
       </c>
       <c r="C134" t="str">
-        <v>10.125.17.33</v>
+        <v>3.3.3.41</v>
       </c>
       <c r="D134" t="str">
-        <v>EL CAMBIO</v>
+        <v>CISNEROS SISTEMATIZADO</v>
       </c>
       <c r="E134" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F134" t="str">
-        <v>9,71</v>
+        <v>5,74</v>
       </c>
       <c r="G134" t="str">
-        <v>8,14</v>
+        <v>4,82</v>
       </c>
       <c r="H134" t="str">
-        <v>9,13</v>
+        <v>5,14</v>
       </c>
       <c r="I134" t="str">
-        <v>7,66</v>
+        <v>4,31</v>
       </c>
       <c r="J134" t="str">
         <v>172.16.20.45</v>
@@ -5491,36 +5491,36 @@
         <v>5002</v>
       </c>
       <c r="L134" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B135" t="str">
-        <v>9:43:43</v>
+        <v>10:30:59</v>
       </c>
       <c r="C135" t="str">
-        <v>10.125.15.83</v>
+        <v>10.40.100.71</v>
       </c>
       <c r="D135" t="str">
-        <v>EL ESTADIO 2</v>
+        <v>BELLAVISTA SISTEMATIZADO</v>
       </c>
       <c r="E135" t="str">
-        <v>CENTRO</v>
+        <v>DAGUA</v>
       </c>
       <c r="F135" t="str">
-        <v>6,83</v>
+        <v>9,14</v>
       </c>
       <c r="G135" t="str">
-        <v>5,73</v>
+        <v>7,67</v>
       </c>
       <c r="H135" t="str">
-        <v>6,29</v>
+        <v>8,53</v>
       </c>
       <c r="I135" t="str">
-        <v>5,28</v>
+        <v>7,16</v>
       </c>
       <c r="J135" t="str">
         <v>172.16.20.45</v>
@@ -5529,36 +5529,36 @@
         <v>5002</v>
       </c>
       <c r="L135" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B136" t="str">
-        <v>9:43:58</v>
+        <v>10:31:11</v>
       </c>
       <c r="C136" t="str">
-        <v>10.125.17.51</v>
+        <v>10.40.100.70</v>
       </c>
       <c r="D136" t="str">
-        <v>LAS PIEDRAS</v>
+        <v>ANTIGUO BANCAFE SISTEMATIZADO</v>
       </c>
       <c r="E136" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F136" t="str">
-        <v>2,34</v>
+        <v>5,51</v>
       </c>
       <c r="G136" t="str">
-        <v>1,96</v>
+        <v>4,62</v>
       </c>
       <c r="H136" t="str">
-        <v>1,99</v>
+        <v>5,12</v>
       </c>
       <c r="I136" t="str">
-        <v>1,67</v>
+        <v>4,30</v>
       </c>
       <c r="J136" t="str">
         <v>172.16.20.45</v>
@@ -5567,36 +5567,36 @@
         <v>5002</v>
       </c>
       <c r="L136" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B137" t="str">
-        <v>9:44:09</v>
+        <v>10:31:22</v>
       </c>
       <c r="C137" t="str">
-        <v>10.125.17.45</v>
+        <v>3.3.3.3</v>
       </c>
       <c r="D137" t="str">
-        <v>NUEVA GRANADA</v>
+        <v>QUEREMAL- SISTEMATIZADO</v>
       </c>
       <c r="E137" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F137" t="str">
-        <v>5,58</v>
+        <v>4,16</v>
       </c>
       <c r="G137" t="str">
-        <v>4,68</v>
+        <v>3,49</v>
       </c>
       <c r="H137" t="str">
-        <v>5,15</v>
+        <v>3,83</v>
       </c>
       <c r="I137" t="str">
-        <v>4,32</v>
+        <v>3,22</v>
       </c>
       <c r="J137" t="str">
         <v>172.16.20.45</v>
@@ -5605,36 +5605,36 @@
         <v>5002</v>
       </c>
       <c r="L137" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B138" t="str">
-        <v>10:09:38</v>
+        <v>10:31:32</v>
       </c>
       <c r="C138" t="str">
-        <v>10.125.17.41</v>
+        <v>3.3.3.22</v>
       </c>
       <c r="D138" t="str">
-        <v>INDEPENDENCIA 5</v>
+        <v>PUEBLO NUEVO2</v>
       </c>
       <c r="E138" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F138" t="str">
-        <v>3,18</v>
+        <v>3,50</v>
       </c>
       <c r="G138" t="str">
-        <v>2,67</v>
+        <v>2,93</v>
       </c>
       <c r="H138" t="str">
-        <v>2,99</v>
+        <v>3,31</v>
       </c>
       <c r="I138" t="str">
-        <v>2,51</v>
+        <v>2,78</v>
       </c>
       <c r="J138" t="str">
         <v>172.16.20.45</v>
@@ -5643,36 +5643,36 @@
         <v>5002</v>
       </c>
       <c r="L138" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B139" t="str">
-        <v>10:25:09</v>
+        <v>10:31:43</v>
       </c>
       <c r="C139" t="str">
-        <v>10.125.15.37</v>
+        <v>3.3.3.23</v>
       </c>
       <c r="D139" t="str">
-        <v>SANTA CRUZ</v>
+        <v>PALMAR 2</v>
       </c>
       <c r="E139" t="str">
-        <v>CENTRO</v>
+        <v>DAGUA</v>
       </c>
       <c r="F139" t="str">
-        <v>6,05</v>
+        <v>1,97</v>
       </c>
       <c r="G139" t="str">
-        <v>5,08</v>
+        <v>1,65</v>
       </c>
       <c r="H139" t="str">
-        <v>5,51</v>
+        <v>1,71</v>
       </c>
       <c r="I139" t="str">
-        <v>4,62</v>
+        <v>1,44</v>
       </c>
       <c r="J139" t="str">
         <v>172.16.20.45</v>
@@ -5681,36 +5681,36 @@
         <v>5002</v>
       </c>
       <c r="L139" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B140" t="str">
-        <v>10:25:21</v>
+        <v>10:32:15</v>
       </c>
       <c r="C140" t="str">
-        <v>10.125.15.43</v>
+        <v>10.40.100.89</v>
       </c>
       <c r="D140" t="str">
-        <v>SAN LUIS 3</v>
+        <v>LOBOGUERRERO - SISTEMATIZADO</v>
       </c>
       <c r="E140" t="str">
-        <v>CENTRO</v>
+        <v>DAGUA</v>
       </c>
       <c r="F140" t="str">
-        <v>4,68</v>
+        <v>16,6</v>
       </c>
       <c r="G140" t="str">
-        <v>3,92</v>
+        <v>14,0</v>
       </c>
       <c r="H140" t="str">
-        <v>4,32</v>
+        <v>16,1</v>
       </c>
       <c r="I140" t="str">
-        <v>3,63</v>
+        <v>13,5</v>
       </c>
       <c r="J140" t="str">
         <v>172.16.20.45</v>
@@ -5719,36 +5719,36 @@
         <v>5002</v>
       </c>
       <c r="L140" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B141" t="str">
-        <v>10:25:33</v>
+        <v>10:32:26</v>
       </c>
       <c r="C141" t="str">
-        <v>10.125.15.42</v>
+        <v>3.3.3.38</v>
       </c>
       <c r="D141" t="str">
-        <v>SAN LUIS 1</v>
+        <v>KM 26 PUNTO SISTEMATIZADO</v>
       </c>
       <c r="E141" t="str">
-        <v>CENTRO</v>
+        <v>DAGUA</v>
       </c>
       <c r="F141" t="str">
-        <v>7,61</v>
+        <v>2,02</v>
       </c>
       <c r="G141" t="str">
-        <v>6,38</v>
+        <v>1,69</v>
       </c>
       <c r="H141" t="str">
-        <v>7,11</v>
+        <v>1,92</v>
       </c>
       <c r="I141" t="str">
-        <v>5,97</v>
+        <v>1,61</v>
       </c>
       <c r="J141" t="str">
         <v>172.16.20.45</v>
@@ -5757,36 +5757,36 @@
         <v>5002</v>
       </c>
       <c r="L141" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B142" t="str">
-        <v>10:25:46</v>
+        <v>10:32:37</v>
       </c>
       <c r="C142" t="str">
-        <v>10.125.15.61</v>
+        <v>10.29.1.14</v>
       </c>
       <c r="D142" t="str">
-        <v>ROCKEFELLER 3</v>
+        <v>LA PAZ SISTEMATIZADO</v>
       </c>
       <c r="E142" t="str">
-        <v>CENTRO</v>
+        <v>DAGUA</v>
       </c>
       <c r="F142" t="str">
-        <v>4,56</v>
+        <v>17,6</v>
       </c>
       <c r="G142" t="str">
-        <v>3,82</v>
+        <v>14,8</v>
       </c>
       <c r="H142" t="str">
-        <v>4,29</v>
+        <v>16,7</v>
       </c>
       <c r="I142" t="str">
-        <v>3,60</v>
+        <v>14,0</v>
       </c>
       <c r="J142" t="str">
         <v>172.16.20.45</v>
@@ -5795,36 +5795,36 @@
         <v>5002</v>
       </c>
       <c r="L142" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B143" t="str">
-        <v>10:25:57</v>
+        <v>10:32:49</v>
       </c>
       <c r="C143" t="str">
-        <v>10.125.15.41</v>
+        <v>3.3.3.18</v>
       </c>
       <c r="D143" t="str">
-        <v>ROCKEFELLER 2</v>
+        <v>KM 26 PARTE ALTA</v>
       </c>
       <c r="E143" t="str">
-        <v>CENTRO</v>
+        <v>DAGUA</v>
       </c>
       <c r="F143" t="str">
-        <v>7,24</v>
+        <v>1,96</v>
       </c>
       <c r="G143" t="str">
-        <v>6,07</v>
+        <v>1,64</v>
       </c>
       <c r="H143" t="str">
-        <v>7,01</v>
+        <v>1,83</v>
       </c>
       <c r="I143" t="str">
-        <v>5,88</v>
+        <v>1,53</v>
       </c>
       <c r="J143" t="str">
         <v>172.16.20.45</v>
@@ -5833,36 +5833,36 @@
         <v>5002</v>
       </c>
       <c r="L143" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B144" t="str">
-        <v>10:26:08</v>
+        <v>10:55:14</v>
       </c>
       <c r="C144" t="str">
-        <v>10.125.15.40</v>
+        <v>3.3.3.44</v>
       </c>
       <c r="D144" t="str">
-        <v>ROCKEFELLER</v>
+        <v>CIUDADELA COLPUERTOS</v>
       </c>
       <c r="E144" t="str">
-        <v>CENTRO</v>
+        <v>SUR</v>
       </c>
       <c r="F144" t="str">
-        <v>11,6</v>
+        <v>1,87</v>
       </c>
       <c r="G144" t="str">
-        <v>9,70</v>
+        <v>1,57</v>
       </c>
       <c r="H144" t="str">
-        <v>10,9</v>
+        <v>1,77</v>
       </c>
       <c r="I144" t="str">
-        <v>9,14</v>
+        <v>1,48</v>
       </c>
       <c r="J144" t="str">
         <v>172.16.20.45</v>
@@ -5871,36 +5871,36 @@
         <v>5002</v>
       </c>
       <c r="L144" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B145" t="str">
-        <v>10:26:19</v>
+        <v>11:43:45</v>
       </c>
       <c r="C145" t="str">
-        <v>10.120.11.156</v>
+        <v>3.3.3.56</v>
       </c>
       <c r="D145" t="str">
-        <v>PUNTA DEL ESTE</v>
+        <v>COMERCIO KM 30</v>
       </c>
       <c r="E145" t="str">
-        <v>CENTRO</v>
+        <v>DAGUA</v>
       </c>
       <c r="F145" t="str">
-        <v>12,6</v>
+        <v>3,37</v>
       </c>
       <c r="G145" t="str">
-        <v>10,6</v>
+        <v>2,83</v>
       </c>
       <c r="H145" t="str">
-        <v>12,3</v>
+        <v>3,16</v>
       </c>
       <c r="I145" t="str">
-        <v>10,3</v>
+        <v>2,65</v>
       </c>
       <c r="J145" t="str">
         <v>172.16.20.45</v>
@@ -5909,36 +5909,36 @@
         <v>5002</v>
       </c>
       <c r="L145" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B146" t="str">
-        <v>10:46:14</v>
+        <v>11:43:57</v>
       </c>
       <c r="C146" t="str">
-        <v>3.3.3.58</v>
+        <v>3.3.3.41</v>
       </c>
       <c r="D146" t="str">
-        <v>CORDOBA_SUR</v>
+        <v>CISNEROS SISTEMATIZADO</v>
       </c>
       <c r="E146" t="str">
-        <v>SUR</v>
+        <v>DAGUA</v>
       </c>
       <c r="F146" t="str">
-        <v>1,23</v>
+        <v>7,57</v>
       </c>
       <c r="G146" t="str">
-        <v>1,03</v>
-      </c>
-      <c r="H146">
-        <v>0.709</v>
-      </c>
-      <c r="I146">
-        <v>0.581</v>
+        <v>6,35</v>
+      </c>
+      <c r="H146" t="str">
+        <v>6,76</v>
+      </c>
+      <c r="I146" t="str">
+        <v>5,67</v>
       </c>
       <c r="J146" t="str">
         <v>172.16.20.45</v>
@@ -5947,36 +5947,36 @@
         <v>5002</v>
       </c>
       <c r="L146" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B147" t="str">
-        <v>11:45:17</v>
+        <v>11:44:12</v>
       </c>
       <c r="C147" t="str">
-        <v>3.3.3.56</v>
+        <v>3.3.3.55</v>
       </c>
       <c r="D147" t="str">
-        <v>COMERCIO KM 30</v>
+        <v>INMACULADA</v>
       </c>
       <c r="E147" t="str">
-        <v>DAGUA</v>
+        <v>CENTRO</v>
       </c>
       <c r="F147" t="str">
-        <v>17,9</v>
+        <v>2,70</v>
       </c>
       <c r="G147" t="str">
-        <v>15,1</v>
+        <v>2,26</v>
       </c>
       <c r="H147" t="str">
-        <v>15,9</v>
+        <v>2,39</v>
       </c>
       <c r="I147" t="str">
-        <v>13,3</v>
+        <v>2,00</v>
       </c>
       <c r="J147" t="str">
         <v>172.16.20.45</v>
@@ -5985,36 +5985,36 @@
         <v>5002</v>
       </c>
       <c r="L147" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B148" t="str">
-        <v>11:53:14</v>
+        <v>11:44:23</v>
       </c>
       <c r="C148" t="str">
-        <v>3.3.3.18</v>
+        <v>3.3.3.26</v>
       </c>
       <c r="D148" t="str">
-        <v>KM 26 PARTE ALTA</v>
+        <v>TRAGEDIAS SISTEMATIZADO</v>
       </c>
       <c r="E148" t="str">
         <v>DAGUA</v>
       </c>
       <c r="F148" t="str">
-        <v>2,50</v>
+        <v>5,62</v>
       </c>
       <c r="G148" t="str">
-        <v>2,10</v>
+        <v>4,72</v>
       </c>
       <c r="H148" t="str">
-        <v>2,27</v>
+        <v>4,94</v>
       </c>
       <c r="I148" t="str">
-        <v>1,91</v>
+        <v>4,14</v>
       </c>
       <c r="J148" t="str">
         <v>172.16.20.45</v>
@@ -6023,36 +6023,36 @@
         <v>5002</v>
       </c>
       <c r="L148" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B149" t="str">
-        <v>11:57:41</v>
+        <v>11:44:34</v>
       </c>
       <c r="C149" t="str">
-        <v>3.3.3.41</v>
+        <v>3.3.3.3</v>
       </c>
       <c r="D149" t="str">
-        <v>CISNEROS SISTEMATIZADO</v>
+        <v>QUEREMAL- SISTEMATIZADO</v>
       </c>
       <c r="E149" t="str">
         <v>DAGUA</v>
       </c>
       <c r="F149" t="str">
-        <v>1,02</v>
-      </c>
-      <c r="G149">
-        <v>0.855</v>
-      </c>
-      <c r="H149">
-        <v>0.96</v>
-      </c>
-      <c r="I149">
-        <v>0.787</v>
+        <v>2,71</v>
+      </c>
+      <c r="G149" t="str">
+        <v>2,27</v>
+      </c>
+      <c r="H149" t="str">
+        <v>2,63</v>
+      </c>
+      <c r="I149" t="str">
+        <v>2,21</v>
       </c>
       <c r="J149" t="str">
         <v>172.16.20.45</v>
@@ -6061,36 +6061,36 @@
         <v>5002</v>
       </c>
       <c r="L149" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>11/04/2023</v>
+        <v>27/04/2023</v>
       </c>
       <c r="B150" t="str">
-        <v>12:06:41</v>
+        <v>11:44:45</v>
       </c>
       <c r="C150" t="str">
-        <v>10.125.15.41</v>
+        <v>3.3.3.22</v>
       </c>
       <c r="D150" t="str">
-        <v>ROCKEFELLER 2</v>
+        <v>PUEBLO NUEVO2</v>
       </c>
       <c r="E150" t="str">
-        <v>CENTRO</v>
+        <v>DAGUA</v>
       </c>
       <c r="F150" t="str">
-        <v>6,01</v>
+        <v>3,86</v>
       </c>
       <c r="G150" t="str">
-        <v>5,04</v>
+        <v>3,23</v>
       </c>
       <c r="H150" t="str">
-        <v>5,64</v>
+        <v>3,42</v>
       </c>
       <c r="I150" t="str">
-        <v>4,73</v>
+        <v>2,87</v>
       </c>
       <c r="J150" t="str">
         <v>172.16.20.45</v>
@@ -6099,12 +6099,316 @@
         <v>5002</v>
       </c>
       <c r="L150" t="str">
-        <v>ADMIN</v>
+        <v>NORTE</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>27/04/2023</v>
+      </c>
+      <c r="B151" t="str">
+        <v>11:44:56</v>
+      </c>
+      <c r="C151" t="str">
+        <v>3.3.3.23</v>
+      </c>
+      <c r="D151" t="str">
+        <v>PALMAR 2</v>
+      </c>
+      <c r="E151" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="F151" t="str">
+        <v>1,71</v>
+      </c>
+      <c r="G151" t="str">
+        <v>1,44</v>
+      </c>
+      <c r="H151" t="str">
+        <v>1,60</v>
+      </c>
+      <c r="I151" t="str">
+        <v>1,35</v>
+      </c>
+      <c r="J151" t="str">
+        <v>172.16.20.45</v>
+      </c>
+      <c r="K151" t="str">
+        <v>5002</v>
+      </c>
+      <c r="L151" t="str">
+        <v>NORTE</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>27/04/2023</v>
+      </c>
+      <c r="B152" t="str">
+        <v>11:45:07</v>
+      </c>
+      <c r="C152" t="str">
+        <v>3.3.3.2</v>
+      </c>
+      <c r="D152" t="str">
+        <v>KM30 SISTEMATIZADO</v>
+      </c>
+      <c r="E152" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="F152" t="str">
+        <v>4,53</v>
+      </c>
+      <c r="G152" t="str">
+        <v>3,80</v>
+      </c>
+      <c r="H152" t="str">
+        <v>3,99</v>
+      </c>
+      <c r="I152" t="str">
+        <v>3,35</v>
+      </c>
+      <c r="J152" t="str">
+        <v>172.16.20.45</v>
+      </c>
+      <c r="K152" t="str">
+        <v>5002</v>
+      </c>
+      <c r="L152" t="str">
+        <v>NORTE</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>27/04/2023</v>
+      </c>
+      <c r="B153" t="str">
+        <v>11:45:18</v>
+      </c>
+      <c r="C153" t="str">
+        <v>3.3.3.18</v>
+      </c>
+      <c r="D153" t="str">
+        <v>KM 26 PARTE ALTA</v>
+      </c>
+      <c r="E153" t="str">
+        <v>DAGUA</v>
+      </c>
+      <c r="F153" t="str">
+        <v>1,63</v>
+      </c>
+      <c r="G153" t="str">
+        <v>1,36</v>
+      </c>
+      <c r="H153" t="str">
+        <v>1,49</v>
+      </c>
+      <c r="I153" t="str">
+        <v>1,25</v>
+      </c>
+      <c r="J153" t="str">
+        <v>172.16.20.45</v>
+      </c>
+      <c r="K153" t="str">
+        <v>5002</v>
+      </c>
+      <c r="L153" t="str">
+        <v>NORTE</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>27/04/2023</v>
+      </c>
+      <c r="B154" t="str">
+        <v>11:45:36</v>
+      </c>
+      <c r="C154" t="str">
+        <v>3.3.3.45</v>
+      </c>
+      <c r="D154" t="str">
+        <v>BOLIVAR</v>
+      </c>
+      <c r="E154" t="str">
+        <v>SUR</v>
+      </c>
+      <c r="F154">
+        <v>0.7</v>
+      </c>
+      <c r="G154">
+        <v>0.573</v>
+      </c>
+      <c r="H154">
+        <v>0.396</v>
+      </c>
+      <c r="I154">
+        <v>0.324</v>
+      </c>
+      <c r="J154" t="str">
+        <v>172.16.20.45</v>
+      </c>
+      <c r="K154" t="str">
+        <v>5002</v>
+      </c>
+      <c r="L154" t="str">
+        <v>NORTE</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>27/04/2023</v>
+      </c>
+      <c r="B155" t="str">
+        <v>11:46:07</v>
+      </c>
+      <c r="C155" t="str">
+        <v>3.3.3.27</v>
+      </c>
+      <c r="D155" t="str">
+        <v>BOCANA</v>
+      </c>
+      <c r="E155" t="str">
+        <v>RURAL</v>
+      </c>
+      <c r="F155" t="str">
+        <v>1,02</v>
+      </c>
+      <c r="G155">
+        <v>0.858</v>
+      </c>
+      <c r="H155">
+        <v>0.904</v>
+      </c>
+      <c r="I155">
+        <v>0.741</v>
+      </c>
+      <c r="J155" t="str">
+        <v>172.16.20.45</v>
+      </c>
+      <c r="K155" t="str">
+        <v>5002</v>
+      </c>
+      <c r="L155" t="str">
+        <v>NORTE</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>27/04/2023</v>
+      </c>
+      <c r="B156" t="str">
+        <v>11:46:19</v>
+      </c>
+      <c r="C156" t="str">
+        <v>3.3.3.54</v>
+      </c>
+      <c r="D156" t="str">
+        <v>INDEPENDENCIA 3</v>
+      </c>
+      <c r="E156" t="str">
+        <v>SUR</v>
+      </c>
+      <c r="F156" t="str">
+        <v>1,60</v>
+      </c>
+      <c r="G156" t="str">
+        <v>1,35</v>
+      </c>
+      <c r="H156" t="str">
+        <v>1,21</v>
+      </c>
+      <c r="I156" t="str">
+        <v>1,02</v>
+      </c>
+      <c r="J156" t="str">
+        <v>172.16.20.45</v>
+      </c>
+      <c r="K156" t="str">
+        <v>5002</v>
+      </c>
+      <c r="L156" t="str">
+        <v>NORTE</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>27/04/2023</v>
+      </c>
+      <c r="B157" t="str">
+        <v>11:46:32</v>
+      </c>
+      <c r="C157" t="str">
+        <v>3.3.3.44</v>
+      </c>
+      <c r="D157" t="str">
+        <v>CIUDADELA COLPUERTOS</v>
+      </c>
+      <c r="E157" t="str">
+        <v>SUR</v>
+      </c>
+      <c r="F157" t="str">
+        <v>2,33</v>
+      </c>
+      <c r="G157" t="str">
+        <v>1,96</v>
+      </c>
+      <c r="H157" t="str">
+        <v>2,00</v>
+      </c>
+      <c r="I157" t="str">
+        <v>1,68</v>
+      </c>
+      <c r="J157" t="str">
+        <v>172.16.20.45</v>
+      </c>
+      <c r="K157" t="str">
+        <v>5002</v>
+      </c>
+      <c r="L157" t="str">
+        <v>NORTE</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>27/04/2023</v>
+      </c>
+      <c r="B158" t="str">
+        <v>11:50:28</v>
+      </c>
+      <c r="C158" t="str">
+        <v>10.125.15.132</v>
+      </c>
+      <c r="D158" t="str">
+        <v>MIRAFLORES 3</v>
+      </c>
+      <c r="E158" t="str">
+        <v>CENTRO</v>
+      </c>
+      <c r="F158" t="str">
+        <v>9,65</v>
+      </c>
+      <c r="G158" t="str">
+        <v>8,10</v>
+      </c>
+      <c r="H158" t="str">
+        <v>9,37</v>
+      </c>
+      <c r="I158" t="str">
+        <v>7,86</v>
+      </c>
+      <c r="J158" t="str">
+        <v>10.125.15.104</v>
+      </c>
+      <c r="K158" t="str">
+        <v>5002</v>
+      </c>
+      <c r="L158" t="str">
+        <v>CENTRO</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L150"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L158"/>
   </ignoredErrors>
 </worksheet>
 </file>